--- a/documentation/traceability_link_matrices/Util Link Matrix.xlsx
+++ b/documentation/traceability_link_matrices/Util Link Matrix.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="63">
   <si>
     <t>Util Traceability Link Matrix</t>
   </si>
@@ -19,7 +19,139 @@
     <t>KryoRegistrar</t>
   </si>
   <si>
-    <t>FIlteredListener</t>
+    <t>BoardUpdateEvent</t>
+  </si>
+  <si>
+    <t>GameEndedEvent</t>
+  </si>
+  <si>
+    <t>InvitationAcceptedEvent</t>
+  </si>
+  <si>
+    <t>InvitationEvent</t>
+  </si>
+  <si>
+    <t>ServerEvent</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>GamePiece</t>
+  </si>
+  <si>
+    <t>Invitation</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>FilteredListener</t>
+  </si>
+  <si>
+    <t>CreateGameRequest</t>
+  </si>
+  <si>
+    <t>GetGameRequest</t>
+  </si>
+  <si>
+    <t>GetPieceLocationRequest</t>
+  </si>
+  <si>
+    <t>GetPlayerRequest</t>
+  </si>
+  <si>
+    <t>GetUserGameHistoryRequest</t>
+  </si>
+  <si>
+    <t>GetUserRequest</t>
+  </si>
+  <si>
+    <t>InvitePlayerRequest</t>
+  </si>
+  <si>
+    <t>InviteReplyRequest</t>
+  </si>
+  <si>
+    <t>LoginRequest</t>
+  </si>
+  <si>
+    <t>LogoutRequest</t>
+  </si>
+  <si>
+    <t>RegisterRequest</t>
+  </si>
+  <si>
+    <t>SessionRequest</t>
+  </si>
+  <si>
+    <t>UnRegisterRequest</t>
+  </si>
+  <si>
+    <t>UpdateGameRequest</t>
+  </si>
+  <si>
+    <t>UpdateInvitationRequest</t>
+  </si>
+  <si>
+    <t>UpdatePieceLocationRequest</t>
+  </si>
+  <si>
+    <t>UpdateSessionExpirationRequest</t>
+  </si>
+  <si>
+    <t>CreateGameResponse</t>
+  </si>
+  <si>
+    <t>GetGameResponse</t>
+  </si>
+  <si>
+    <t>GetInvitationResponse</t>
+  </si>
+  <si>
+    <t>GetPieceResponse</t>
+  </si>
+  <si>
+    <t>GetPlayerResponse</t>
+  </si>
+  <si>
+    <t>GetUserGameHistoryResponse</t>
+  </si>
+  <si>
+    <t>GetUserResponse</t>
+  </si>
+  <si>
+    <t>InvitePlayerResponse</t>
+  </si>
+  <si>
+    <t>InviteReplyResponse</t>
+  </si>
+  <si>
+    <t>LoginResponse</t>
+  </si>
+  <si>
+    <t>LogoutResponse</t>
+  </si>
+  <si>
+    <t>RegisterResponse</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>UnRegisterResponse</t>
+  </si>
+  <si>
+    <t>UpdateGameResponse</t>
+  </si>
+  <si>
+    <t>UpdateSessionExpirationResponse</t>
   </si>
   <si>
     <t>AuthToken</t>
@@ -28,43 +160,10 @@
     <t>Crypto</t>
   </si>
   <si>
+    <t>LoginAttempt</t>
+  </si>
+  <si>
     <t>UserSession</t>
-  </si>
-  <si>
-    <t>SessionRequest</t>
-  </si>
-  <si>
-    <t>RegisterRequest</t>
-  </si>
-  <si>
-    <t>LoginRequest</t>
-  </si>
-  <si>
-    <t>LoginAttempt</t>
-  </si>
-  <si>
-    <t>Response</t>
-  </si>
-  <si>
-    <t>ServerEvent</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>GamePiece</t>
-  </si>
-  <si>
-    <t>Game</t>
-  </si>
-  <si>
-    <t>Player</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Invitation</t>
   </si>
   <si>
     <t>#1: Register to the system</t>
@@ -218,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -242,14 +341,20 @@
     <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -273,10 +378,48 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="45.43"/>
     <col customWidth="1" min="2" max="2" width="20.43"/>
-    <col customWidth="1" min="3" max="3" width="22.14"/>
-    <col customWidth="1" min="4" max="7" width="22.43"/>
-    <col customWidth="1" min="8" max="8" width="21.86"/>
-    <col customWidth="1" min="9" max="18" width="19.29"/>
+    <col customWidth="1" min="3" max="3" width="27.0"/>
+    <col customWidth="1" min="4" max="4" width="26.43"/>
+    <col customWidth="1" min="5" max="5" width="34.43"/>
+    <col customWidth="1" min="6" max="6" width="23.57"/>
+    <col customWidth="1" min="7" max="7" width="20.43"/>
+    <col customWidth="1" min="8" max="13" width="22.14"/>
+    <col customWidth="1" min="14" max="14" width="24.43"/>
+    <col customWidth="1" min="15" max="15" width="31.0"/>
+    <col customWidth="1" min="16" max="16" width="29.29"/>
+    <col customWidth="1" min="17" max="17" width="37.29"/>
+    <col customWidth="1" min="18" max="18" width="27.57"/>
+    <col customWidth="1" min="19" max="19" width="41.57"/>
+    <col customWidth="1" min="20" max="20" width="26.14"/>
+    <col customWidth="1" min="21" max="21" width="29.86"/>
+    <col customWidth="1" min="22" max="22" width="29.0"/>
+    <col customWidth="1" min="23" max="24" width="22.14"/>
+    <col customWidth="1" min="25" max="25" width="23.86"/>
+    <col customWidth="1" min="26" max="26" width="24.71"/>
+    <col customWidth="1" min="27" max="27" width="28.43"/>
+    <col customWidth="1" min="28" max="28" width="31.0"/>
+    <col customWidth="1" min="29" max="29" width="34.43"/>
+    <col customWidth="1" min="30" max="30" width="41.29"/>
+    <col customWidth="1" min="31" max="31" width="45.86"/>
+    <col customWidth="1" min="32" max="32" width="31.86"/>
+    <col customWidth="1" min="33" max="33" width="30.14"/>
+    <col customWidth="1" min="34" max="34" width="34.14"/>
+    <col customWidth="1" min="35" max="35" width="29.57"/>
+    <col customWidth="1" min="36" max="36" width="32.43"/>
+    <col customWidth="1" min="37" max="37" width="43.86"/>
+    <col customWidth="1" min="38" max="38" width="29.29"/>
+    <col customWidth="1" min="39" max="40" width="31.57"/>
+    <col customWidth="1" min="41" max="41" width="25.0"/>
+    <col customWidth="1" min="42" max="42" width="26.14"/>
+    <col customWidth="1" min="43" max="43" width="29.29"/>
+    <col customWidth="1" min="44" max="44" width="17.0"/>
+    <col customWidth="1" min="45" max="45" width="31.86"/>
+    <col customWidth="1" min="46" max="46" width="32.43"/>
+    <col customWidth="1" min="47" max="47" width="49.86"/>
+    <col customWidth="1" min="48" max="48" width="19.29"/>
+    <col customWidth="1" min="49" max="49" width="14.71"/>
+    <col customWidth="1" min="50" max="50" width="21.86"/>
+    <col customWidth="1" min="51" max="51" width="20.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="40.5" customHeight="1">
@@ -299,9 +442,42 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="3"/>
-    </row>
-    <row r="2" ht="36.75" customHeight="1">
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="3"/>
+    </row>
+    <row r="2" ht="37.5" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -342,7 +518,7 @@
       <c r="N2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="P2" s="5" t="s">
@@ -354,3415 +530,3916 @@
       <c r="R2" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" ht="36.75" customHeight="1">
+      <c r="S2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY2" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="7" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>19</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C3" s="8"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="K3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="8"/>
+        <v>52</v>
+      </c>
+      <c r="L3" s="10"/>
       <c r="M3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" ht="36.75" customHeight="1">
+        <v>52</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+    </row>
+    <row r="4">
       <c r="A4" s="11" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>19</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="K4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" ht="36.75" customHeight="1">
+        <v>52</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="9"/>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="7" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>19</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
+        <v>52</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="K5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" ht="36.75" customHeight="1">
+        <v>52</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="7" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
-        <v>19</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+        <v>52</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="K6" s="8" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="10" t="s">
-        <v>19</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="8"/>
       <c r="P6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" ht="36.75" customHeight="1">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO6" s="8"/>
+      <c r="AP6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AR6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW6" s="8"/>
+      <c r="AX6" s="8"/>
+      <c r="AY6" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="7" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>19</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C7" s="8"/>
       <c r="D7" s="8" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+        <v>52</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
       <c r="K7" s="8" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-    </row>
-    <row r="8" ht="36.75" customHeight="1">
+        <v>52</v>
+      </c>
+      <c r="M7" s="10"/>
+      <c r="N7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8"/>
+      <c r="AO7" s="8"/>
+      <c r="AP7" s="8"/>
+      <c r="AQ7" s="8"/>
+      <c r="AR7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="9"/>
+      <c r="AU7" s="8"/>
+      <c r="AV7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW7" s="8"/>
+      <c r="AX7" s="8"/>
+      <c r="AY7" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="7" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>19</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
       <c r="K8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="8"/>
+        <v>52</v>
+      </c>
+      <c r="L8" s="10"/>
       <c r="M8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" s="9"/>
-    </row>
-    <row r="9" ht="36.75" customHeight="1">
+        <v>52</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8"/>
+      <c r="AO8" s="8"/>
+      <c r="AP8" s="8"/>
+      <c r="AQ8" s="8"/>
+      <c r="AR8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="10"/>
+      <c r="AV8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW8" s="8"/>
+      <c r="AX8" s="8"/>
+      <c r="AY8" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="7" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>19</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
       <c r="K9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-    </row>
-    <row r="10" ht="36.75" customHeight="1">
+        <v>52</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c r="N9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8"/>
+      <c r="AO9" s="8"/>
+      <c r="AP9" s="8"/>
+      <c r="AQ9" s="8"/>
+      <c r="AR9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="9"/>
+      <c r="AU9" s="8"/>
+      <c r="AV9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW9" s="8"/>
+      <c r="AX9" s="8"/>
+      <c r="AY9" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="7" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>19</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
       <c r="K10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="8"/>
+        <v>52</v>
+      </c>
+      <c r="L10" s="10"/>
       <c r="M10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="9"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="R10" s="9"/>
-    </row>
-    <row r="11" ht="36.75" customHeight="1">
+        <v>52</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="9"/>
+      <c r="AU10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV10" s="8"/>
+      <c r="AW10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY10" s="8"/>
+    </row>
+    <row r="11">
       <c r="A11" s="7" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>19</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
       <c r="K11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="8"/>
+        <v>52</v>
+      </c>
+      <c r="L11" s="10"/>
       <c r="M11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="R11" s="9"/>
-    </row>
-    <row r="12" ht="36.75" customHeight="1">
+        <v>52</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8"/>
+      <c r="AO11" s="8"/>
+      <c r="AP11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ11" s="8"/>
+      <c r="AR11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS11" s="10"/>
+      <c r="AT11" s="9"/>
+      <c r="AU11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW11" s="8"/>
+      <c r="AX11" s="8"/>
+      <c r="AY11" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="7" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>19</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="F12" s="8"/>
       <c r="G12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+        <v>52</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="10"/>
       <c r="K12" s="8" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>19</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="M12" s="10"/>
       <c r="N12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-    </row>
-    <row r="13" ht="36.75" customHeight="1">
+        <v>52</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8"/>
+      <c r="AO12" s="8"/>
+      <c r="AP12" s="8"/>
+      <c r="AQ12" s="8"/>
+      <c r="AR12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS12" s="8"/>
+      <c r="AT12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU12" s="8"/>
+      <c r="AV12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW12" s="8"/>
+      <c r="AX12" s="8"/>
+      <c r="AY12" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="7" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>19</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="10"/>
       <c r="K13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10" t="s">
-        <v>19</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c r="N13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" s="8"/>
       <c r="P13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="8"/>
+      <c r="AO13" s="8"/>
+      <c r="AP13" s="8"/>
+      <c r="AQ13" s="8"/>
+      <c r="AR13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS13" s="9"/>
+      <c r="AT13" s="9"/>
+      <c r="AU13" s="8"/>
+      <c r="AV13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW13" s="8"/>
+      <c r="AX13" s="8"/>
+      <c r="AY13" s="8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="12"/>
+      <c r="A14" s="14"/>
     </row>
     <row r="15">
-      <c r="A15" s="12"/>
+      <c r="A15" s="14"/>
     </row>
     <row r="16">
-      <c r="A16" s="12"/>
+      <c r="A16" s="14"/>
     </row>
     <row r="17">
-      <c r="A17" s="12"/>
+      <c r="A17" s="14"/>
     </row>
     <row r="18">
-      <c r="A18" s="12"/>
+      <c r="A18" s="14"/>
     </row>
     <row r="19">
-      <c r="A19" s="12"/>
+      <c r="A19" s="14"/>
     </row>
     <row r="20">
-      <c r="A20" s="12"/>
+      <c r="A20" s="14"/>
     </row>
     <row r="21">
-      <c r="A21" s="12"/>
+      <c r="A21" s="14"/>
     </row>
     <row r="22">
-      <c r="A22" s="12"/>
+      <c r="A22" s="14"/>
     </row>
     <row r="23">
-      <c r="A23" s="12"/>
+      <c r="A23" s="14"/>
     </row>
     <row r="24">
-      <c r="A24" s="12"/>
+      <c r="A24" s="14"/>
     </row>
     <row r="25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="14"/>
     </row>
     <row r="26">
-      <c r="A26" s="12"/>
+      <c r="A26" s="14"/>
     </row>
     <row r="27">
-      <c r="A27" s="12"/>
+      <c r="A27" s="14"/>
     </row>
     <row r="28">
-      <c r="A28" s="12"/>
+      <c r="A28" s="14"/>
     </row>
     <row r="29">
-      <c r="A29" s="12"/>
+      <c r="A29" s="14"/>
     </row>
     <row r="30">
-      <c r="A30" s="12"/>
+      <c r="A30" s="14"/>
     </row>
     <row r="31">
-      <c r="A31" s="12"/>
+      <c r="A31" s="14"/>
     </row>
     <row r="32">
-      <c r="A32" s="12"/>
+      <c r="A32" s="14"/>
     </row>
     <row r="33">
-      <c r="A33" s="12"/>
+      <c r="A33" s="14"/>
     </row>
     <row r="34">
-      <c r="A34" s="12"/>
+      <c r="A34" s="14"/>
     </row>
     <row r="35">
-      <c r="A35" s="12"/>
+      <c r="A35" s="14"/>
     </row>
     <row r="36">
-      <c r="A36" s="12"/>
+      <c r="A36" s="14"/>
     </row>
     <row r="37">
-      <c r="A37" s="12"/>
+      <c r="A37" s="14"/>
     </row>
     <row r="38">
-      <c r="A38" s="12"/>
+      <c r="A38" s="14"/>
     </row>
     <row r="39">
-      <c r="A39" s="12"/>
+      <c r="A39" s="14"/>
     </row>
     <row r="40">
-      <c r="A40" s="12"/>
+      <c r="A40" s="14"/>
     </row>
     <row r="41">
-      <c r="A41" s="12"/>
+      <c r="A41" s="14"/>
     </row>
     <row r="42">
-      <c r="A42" s="12"/>
+      <c r="A42" s="14"/>
     </row>
     <row r="43">
-      <c r="A43" s="12"/>
+      <c r="A43" s="14"/>
     </row>
     <row r="44">
-      <c r="A44" s="12"/>
+      <c r="A44" s="14"/>
     </row>
     <row r="45">
-      <c r="A45" s="12"/>
+      <c r="A45" s="14"/>
     </row>
     <row r="46">
-      <c r="A46" s="12"/>
+      <c r="A46" s="14"/>
     </row>
     <row r="47">
-      <c r="A47" s="12"/>
+      <c r="A47" s="14"/>
     </row>
     <row r="48">
-      <c r="A48" s="12"/>
+      <c r="A48" s="14"/>
     </row>
     <row r="49">
-      <c r="A49" s="12"/>
+      <c r="A49" s="14"/>
     </row>
     <row r="50">
-      <c r="A50" s="12"/>
+      <c r="A50" s="14"/>
     </row>
     <row r="51">
-      <c r="A51" s="12"/>
+      <c r="A51" s="14"/>
     </row>
     <row r="52">
-      <c r="A52" s="12"/>
+      <c r="A52" s="14"/>
     </row>
     <row r="53">
-      <c r="A53" s="12"/>
+      <c r="A53" s="14"/>
     </row>
     <row r="54">
-      <c r="A54" s="12"/>
+      <c r="A54" s="14"/>
     </row>
     <row r="55">
-      <c r="A55" s="12"/>
+      <c r="A55" s="14"/>
     </row>
     <row r="56">
-      <c r="A56" s="12"/>
+      <c r="A56" s="14"/>
     </row>
     <row r="57">
-      <c r="A57" s="12"/>
+      <c r="A57" s="14"/>
     </row>
     <row r="58">
-      <c r="A58" s="12"/>
+      <c r="A58" s="14"/>
     </row>
     <row r="59">
-      <c r="A59" s="12"/>
+      <c r="A59" s="14"/>
     </row>
     <row r="60">
-      <c r="A60" s="12"/>
+      <c r="A60" s="14"/>
     </row>
     <row r="61">
-      <c r="A61" s="12"/>
+      <c r="A61" s="14"/>
     </row>
     <row r="62">
-      <c r="A62" s="12"/>
+      <c r="A62" s="14"/>
     </row>
     <row r="63">
-      <c r="A63" s="12"/>
+      <c r="A63" s="14"/>
     </row>
     <row r="64">
-      <c r="A64" s="12"/>
+      <c r="A64" s="14"/>
     </row>
     <row r="65">
-      <c r="A65" s="12"/>
+      <c r="A65" s="14"/>
     </row>
     <row r="66">
-      <c r="A66" s="12"/>
+      <c r="A66" s="14"/>
     </row>
     <row r="67">
-      <c r="A67" s="12"/>
+      <c r="A67" s="14"/>
     </row>
     <row r="68">
-      <c r="A68" s="12"/>
+      <c r="A68" s="14"/>
     </row>
     <row r="69">
-      <c r="A69" s="12"/>
+      <c r="A69" s="14"/>
     </row>
     <row r="70">
-      <c r="A70" s="12"/>
+      <c r="A70" s="14"/>
     </row>
     <row r="71">
-      <c r="A71" s="12"/>
+      <c r="A71" s="14"/>
     </row>
     <row r="72">
-      <c r="A72" s="12"/>
+      <c r="A72" s="14"/>
     </row>
     <row r="73">
-      <c r="A73" s="12"/>
+      <c r="A73" s="14"/>
     </row>
     <row r="74">
-      <c r="A74" s="12"/>
+      <c r="A74" s="14"/>
     </row>
     <row r="75">
-      <c r="A75" s="12"/>
+      <c r="A75" s="14"/>
     </row>
     <row r="76">
-      <c r="A76" s="12"/>
+      <c r="A76" s="14"/>
     </row>
     <row r="77">
-      <c r="A77" s="12"/>
+      <c r="A77" s="14"/>
     </row>
     <row r="78">
-      <c r="A78" s="12"/>
+      <c r="A78" s="14"/>
     </row>
     <row r="79">
-      <c r="A79" s="12"/>
+      <c r="A79" s="14"/>
     </row>
     <row r="80">
-      <c r="A80" s="12"/>
+      <c r="A80" s="14"/>
     </row>
     <row r="81">
-      <c r="A81" s="12"/>
+      <c r="A81" s="14"/>
     </row>
     <row r="82">
-      <c r="A82" s="12"/>
+      <c r="A82" s="14"/>
     </row>
     <row r="83">
-      <c r="A83" s="12"/>
+      <c r="A83" s="14"/>
     </row>
     <row r="84">
-      <c r="A84" s="12"/>
+      <c r="A84" s="14"/>
     </row>
     <row r="85">
-      <c r="A85" s="12"/>
+      <c r="A85" s="14"/>
     </row>
     <row r="86">
-      <c r="A86" s="12"/>
+      <c r="A86" s="14"/>
     </row>
     <row r="87">
-      <c r="A87" s="12"/>
+      <c r="A87" s="14"/>
     </row>
     <row r="88">
-      <c r="A88" s="12"/>
+      <c r="A88" s="14"/>
     </row>
     <row r="89">
-      <c r="A89" s="12"/>
+      <c r="A89" s="14"/>
     </row>
     <row r="90">
-      <c r="A90" s="12"/>
+      <c r="A90" s="14"/>
     </row>
     <row r="91">
-      <c r="A91" s="12"/>
+      <c r="A91" s="14"/>
     </row>
     <row r="92">
-      <c r="A92" s="12"/>
+      <c r="A92" s="14"/>
     </row>
     <row r="93">
-      <c r="A93" s="12"/>
+      <c r="A93" s="14"/>
     </row>
     <row r="94">
-      <c r="A94" s="12"/>
+      <c r="A94" s="14"/>
     </row>
     <row r="95">
-      <c r="A95" s="12"/>
+      <c r="A95" s="14"/>
     </row>
     <row r="96">
-      <c r="A96" s="12"/>
+      <c r="A96" s="14"/>
     </row>
     <row r="97">
-      <c r="A97" s="12"/>
+      <c r="A97" s="14"/>
     </row>
     <row r="98">
-      <c r="A98" s="12"/>
+      <c r="A98" s="14"/>
     </row>
     <row r="99">
-      <c r="A99" s="12"/>
+      <c r="A99" s="14"/>
     </row>
     <row r="100">
-      <c r="A100" s="12"/>
+      <c r="A100" s="14"/>
     </row>
     <row r="101">
-      <c r="A101" s="12"/>
+      <c r="A101" s="14"/>
     </row>
     <row r="102">
-      <c r="A102" s="12"/>
+      <c r="A102" s="14"/>
     </row>
     <row r="103">
-      <c r="A103" s="12"/>
+      <c r="A103" s="14"/>
     </row>
     <row r="104">
-      <c r="A104" s="12"/>
+      <c r="A104" s="14"/>
     </row>
     <row r="105">
-      <c r="A105" s="12"/>
+      <c r="A105" s="14"/>
     </row>
     <row r="106">
-      <c r="A106" s="12"/>
+      <c r="A106" s="14"/>
     </row>
     <row r="107">
-      <c r="A107" s="12"/>
+      <c r="A107" s="14"/>
     </row>
     <row r="108">
-      <c r="A108" s="12"/>
+      <c r="A108" s="14"/>
     </row>
     <row r="109">
-      <c r="A109" s="12"/>
+      <c r="A109" s="14"/>
     </row>
     <row r="110">
-      <c r="A110" s="12"/>
+      <c r="A110" s="14"/>
     </row>
     <row r="111">
-      <c r="A111" s="12"/>
+      <c r="A111" s="14"/>
     </row>
     <row r="112">
-      <c r="A112" s="12"/>
+      <c r="A112" s="14"/>
     </row>
     <row r="113">
-      <c r="A113" s="12"/>
+      <c r="A113" s="14"/>
     </row>
     <row r="114">
-      <c r="A114" s="12"/>
+      <c r="A114" s="14"/>
     </row>
     <row r="115">
-      <c r="A115" s="12"/>
+      <c r="A115" s="14"/>
     </row>
     <row r="116">
-      <c r="A116" s="12"/>
+      <c r="A116" s="14"/>
     </row>
     <row r="117">
-      <c r="A117" s="12"/>
+      <c r="A117" s="14"/>
     </row>
     <row r="118">
-      <c r="A118" s="12"/>
+      <c r="A118" s="14"/>
     </row>
     <row r="119">
-      <c r="A119" s="12"/>
+      <c r="A119" s="14"/>
     </row>
     <row r="120">
-      <c r="A120" s="12"/>
+      <c r="A120" s="14"/>
     </row>
     <row r="121">
-      <c r="A121" s="12"/>
+      <c r="A121" s="14"/>
     </row>
     <row r="122">
-      <c r="A122" s="12"/>
+      <c r="A122" s="14"/>
     </row>
     <row r="123">
-      <c r="A123" s="12"/>
+      <c r="A123" s="14"/>
     </row>
     <row r="124">
-      <c r="A124" s="12"/>
+      <c r="A124" s="14"/>
     </row>
     <row r="125">
-      <c r="A125" s="12"/>
+      <c r="A125" s="14"/>
     </row>
     <row r="126">
-      <c r="A126" s="12"/>
+      <c r="A126" s="14"/>
     </row>
     <row r="127">
-      <c r="A127" s="12"/>
+      <c r="A127" s="14"/>
     </row>
     <row r="128">
-      <c r="A128" s="12"/>
+      <c r="A128" s="14"/>
     </row>
     <row r="129">
-      <c r="A129" s="12"/>
+      <c r="A129" s="14"/>
     </row>
     <row r="130">
-      <c r="A130" s="12"/>
+      <c r="A130" s="14"/>
     </row>
     <row r="131">
-      <c r="A131" s="12"/>
+      <c r="A131" s="14"/>
     </row>
     <row r="132">
-      <c r="A132" s="12"/>
+      <c r="A132" s="14"/>
     </row>
     <row r="133">
-      <c r="A133" s="12"/>
+      <c r="A133" s="14"/>
     </row>
     <row r="134">
-      <c r="A134" s="12"/>
+      <c r="A134" s="14"/>
     </row>
     <row r="135">
-      <c r="A135" s="12"/>
+      <c r="A135" s="14"/>
     </row>
     <row r="136">
-      <c r="A136" s="12"/>
+      <c r="A136" s="14"/>
     </row>
     <row r="137">
-      <c r="A137" s="12"/>
+      <c r="A137" s="14"/>
     </row>
     <row r="138">
-      <c r="A138" s="12"/>
+      <c r="A138" s="14"/>
     </row>
     <row r="139">
-      <c r="A139" s="12"/>
+      <c r="A139" s="14"/>
     </row>
     <row r="140">
-      <c r="A140" s="12"/>
+      <c r="A140" s="14"/>
     </row>
     <row r="141">
-      <c r="A141" s="12"/>
+      <c r="A141" s="14"/>
     </row>
     <row r="142">
-      <c r="A142" s="12"/>
+      <c r="A142" s="14"/>
     </row>
     <row r="143">
-      <c r="A143" s="12"/>
+      <c r="A143" s="14"/>
     </row>
     <row r="144">
-      <c r="A144" s="12"/>
+      <c r="A144" s="14"/>
     </row>
     <row r="145">
-      <c r="A145" s="12"/>
+      <c r="A145" s="14"/>
     </row>
     <row r="146">
-      <c r="A146" s="12"/>
+      <c r="A146" s="14"/>
     </row>
     <row r="147">
-      <c r="A147" s="12"/>
+      <c r="A147" s="14"/>
     </row>
     <row r="148">
-      <c r="A148" s="12"/>
+      <c r="A148" s="14"/>
     </row>
     <row r="149">
-      <c r="A149" s="12"/>
+      <c r="A149" s="14"/>
     </row>
     <row r="150">
-      <c r="A150" s="12"/>
+      <c r="A150" s="14"/>
     </row>
     <row r="151">
-      <c r="A151" s="12"/>
+      <c r="A151" s="14"/>
     </row>
     <row r="152">
-      <c r="A152" s="12"/>
+      <c r="A152" s="14"/>
     </row>
     <row r="153">
-      <c r="A153" s="12"/>
+      <c r="A153" s="14"/>
     </row>
     <row r="154">
-      <c r="A154" s="12"/>
+      <c r="A154" s="14"/>
     </row>
     <row r="155">
-      <c r="A155" s="12"/>
+      <c r="A155" s="14"/>
     </row>
     <row r="156">
-      <c r="A156" s="12"/>
+      <c r="A156" s="14"/>
     </row>
     <row r="157">
-      <c r="A157" s="12"/>
+      <c r="A157" s="14"/>
     </row>
     <row r="158">
-      <c r="A158" s="12"/>
+      <c r="A158" s="14"/>
     </row>
     <row r="159">
-      <c r="A159" s="12"/>
+      <c r="A159" s="14"/>
     </row>
     <row r="160">
-      <c r="A160" s="12"/>
+      <c r="A160" s="14"/>
     </row>
     <row r="161">
-      <c r="A161" s="12"/>
+      <c r="A161" s="14"/>
     </row>
     <row r="162">
-      <c r="A162" s="12"/>
+      <c r="A162" s="14"/>
     </row>
     <row r="163">
-      <c r="A163" s="12"/>
+      <c r="A163" s="14"/>
     </row>
     <row r="164">
-      <c r="A164" s="12"/>
+      <c r="A164" s="14"/>
     </row>
     <row r="165">
-      <c r="A165" s="12"/>
+      <c r="A165" s="14"/>
     </row>
     <row r="166">
-      <c r="A166" s="12"/>
+      <c r="A166" s="14"/>
     </row>
     <row r="167">
-      <c r="A167" s="12"/>
+      <c r="A167" s="14"/>
     </row>
     <row r="168">
-      <c r="A168" s="12"/>
+      <c r="A168" s="14"/>
     </row>
     <row r="169">
-      <c r="A169" s="12"/>
+      <c r="A169" s="14"/>
     </row>
     <row r="170">
-      <c r="A170" s="12"/>
+      <c r="A170" s="14"/>
     </row>
     <row r="171">
-      <c r="A171" s="12"/>
+      <c r="A171" s="14"/>
     </row>
     <row r="172">
-      <c r="A172" s="12"/>
+      <c r="A172" s="14"/>
     </row>
     <row r="173">
-      <c r="A173" s="12"/>
+      <c r="A173" s="14"/>
     </row>
     <row r="174">
-      <c r="A174" s="12"/>
+      <c r="A174" s="14"/>
     </row>
     <row r="175">
-      <c r="A175" s="12"/>
+      <c r="A175" s="14"/>
     </row>
     <row r="176">
-      <c r="A176" s="12"/>
+      <c r="A176" s="14"/>
     </row>
     <row r="177">
-      <c r="A177" s="12"/>
+      <c r="A177" s="14"/>
     </row>
     <row r="178">
-      <c r="A178" s="12"/>
+      <c r="A178" s="14"/>
     </row>
     <row r="179">
-      <c r="A179" s="12"/>
+      <c r="A179" s="14"/>
     </row>
     <row r="180">
-      <c r="A180" s="12"/>
+      <c r="A180" s="14"/>
     </row>
     <row r="181">
-      <c r="A181" s="12"/>
+      <c r="A181" s="14"/>
     </row>
     <row r="182">
-      <c r="A182" s="12"/>
+      <c r="A182" s="14"/>
     </row>
     <row r="183">
-      <c r="A183" s="12"/>
+      <c r="A183" s="14"/>
     </row>
     <row r="184">
-      <c r="A184" s="12"/>
+      <c r="A184" s="14"/>
     </row>
     <row r="185">
-      <c r="A185" s="12"/>
+      <c r="A185" s="14"/>
     </row>
     <row r="186">
-      <c r="A186" s="12"/>
+      <c r="A186" s="14"/>
     </row>
     <row r="187">
-      <c r="A187" s="12"/>
+      <c r="A187" s="14"/>
     </row>
     <row r="188">
-      <c r="A188" s="12"/>
+      <c r="A188" s="14"/>
     </row>
     <row r="189">
-      <c r="A189" s="12"/>
+      <c r="A189" s="14"/>
     </row>
     <row r="190">
-      <c r="A190" s="12"/>
+      <c r="A190" s="14"/>
     </row>
     <row r="191">
-      <c r="A191" s="12"/>
+      <c r="A191" s="14"/>
     </row>
     <row r="192">
-      <c r="A192" s="12"/>
+      <c r="A192" s="14"/>
     </row>
     <row r="193">
-      <c r="A193" s="12"/>
+      <c r="A193" s="14"/>
     </row>
     <row r="194">
-      <c r="A194" s="12"/>
+      <c r="A194" s="14"/>
     </row>
     <row r="195">
-      <c r="A195" s="12"/>
+      <c r="A195" s="14"/>
     </row>
     <row r="196">
-      <c r="A196" s="12"/>
+      <c r="A196" s="14"/>
     </row>
     <row r="197">
-      <c r="A197" s="12"/>
+      <c r="A197" s="14"/>
     </row>
     <row r="198">
-      <c r="A198" s="12"/>
+      <c r="A198" s="14"/>
     </row>
     <row r="199">
-      <c r="A199" s="12"/>
+      <c r="A199" s="14"/>
     </row>
     <row r="200">
-      <c r="A200" s="12"/>
+      <c r="A200" s="14"/>
     </row>
     <row r="201">
-      <c r="A201" s="12"/>
+      <c r="A201" s="14"/>
     </row>
     <row r="202">
-      <c r="A202" s="12"/>
+      <c r="A202" s="14"/>
     </row>
     <row r="203">
-      <c r="A203" s="12"/>
+      <c r="A203" s="14"/>
     </row>
     <row r="204">
-      <c r="A204" s="12"/>
+      <c r="A204" s="14"/>
     </row>
     <row r="205">
-      <c r="A205" s="12"/>
+      <c r="A205" s="14"/>
     </row>
     <row r="206">
-      <c r="A206" s="12"/>
+      <c r="A206" s="14"/>
     </row>
     <row r="207">
-      <c r="A207" s="12"/>
+      <c r="A207" s="14"/>
     </row>
     <row r="208">
-      <c r="A208" s="12"/>
+      <c r="A208" s="14"/>
     </row>
     <row r="209">
-      <c r="A209" s="12"/>
+      <c r="A209" s="14"/>
     </row>
     <row r="210">
-      <c r="A210" s="12"/>
+      <c r="A210" s="14"/>
     </row>
     <row r="211">
-      <c r="A211" s="12"/>
+      <c r="A211" s="14"/>
     </row>
     <row r="212">
-      <c r="A212" s="12"/>
+      <c r="A212" s="14"/>
     </row>
     <row r="213">
-      <c r="A213" s="12"/>
+      <c r="A213" s="14"/>
     </row>
     <row r="214">
-      <c r="A214" s="12"/>
+      <c r="A214" s="14"/>
     </row>
     <row r="215">
-      <c r="A215" s="12"/>
+      <c r="A215" s="14"/>
     </row>
     <row r="216">
-      <c r="A216" s="12"/>
+      <c r="A216" s="14"/>
     </row>
     <row r="217">
-      <c r="A217" s="12"/>
+      <c r="A217" s="14"/>
     </row>
     <row r="218">
-      <c r="A218" s="12"/>
+      <c r="A218" s="14"/>
     </row>
     <row r="219">
-      <c r="A219" s="12"/>
+      <c r="A219" s="14"/>
     </row>
     <row r="220">
-      <c r="A220" s="12"/>
+      <c r="A220" s="14"/>
     </row>
     <row r="221">
-      <c r="A221" s="12"/>
+      <c r="A221" s="14"/>
     </row>
     <row r="222">
-      <c r="A222" s="12"/>
+      <c r="A222" s="14"/>
     </row>
     <row r="223">
-      <c r="A223" s="12"/>
+      <c r="A223" s="14"/>
     </row>
     <row r="224">
-      <c r="A224" s="12"/>
+      <c r="A224" s="14"/>
     </row>
     <row r="225">
-      <c r="A225" s="12"/>
+      <c r="A225" s="14"/>
     </row>
     <row r="226">
-      <c r="A226" s="12"/>
+      <c r="A226" s="14"/>
     </row>
     <row r="227">
-      <c r="A227" s="12"/>
+      <c r="A227" s="14"/>
     </row>
     <row r="228">
-      <c r="A228" s="12"/>
+      <c r="A228" s="14"/>
     </row>
     <row r="229">
-      <c r="A229" s="12"/>
+      <c r="A229" s="14"/>
     </row>
     <row r="230">
-      <c r="A230" s="12"/>
+      <c r="A230" s="14"/>
     </row>
     <row r="231">
-      <c r="A231" s="12"/>
+      <c r="A231" s="14"/>
     </row>
     <row r="232">
-      <c r="A232" s="12"/>
+      <c r="A232" s="14"/>
     </row>
     <row r="233">
-      <c r="A233" s="12"/>
+      <c r="A233" s="14"/>
     </row>
     <row r="234">
-      <c r="A234" s="12"/>
+      <c r="A234" s="14"/>
     </row>
     <row r="235">
-      <c r="A235" s="12"/>
+      <c r="A235" s="14"/>
     </row>
     <row r="236">
-      <c r="A236" s="12"/>
+      <c r="A236" s="14"/>
     </row>
     <row r="237">
-      <c r="A237" s="12"/>
+      <c r="A237" s="14"/>
     </row>
     <row r="238">
-      <c r="A238" s="12"/>
+      <c r="A238" s="14"/>
     </row>
     <row r="239">
-      <c r="A239" s="12"/>
+      <c r="A239" s="14"/>
     </row>
     <row r="240">
-      <c r="A240" s="12"/>
+      <c r="A240" s="14"/>
     </row>
     <row r="241">
-      <c r="A241" s="12"/>
+      <c r="A241" s="14"/>
     </row>
     <row r="242">
-      <c r="A242" s="12"/>
+      <c r="A242" s="14"/>
     </row>
     <row r="243">
-      <c r="A243" s="12"/>
+      <c r="A243" s="14"/>
     </row>
     <row r="244">
-      <c r="A244" s="12"/>
+      <c r="A244" s="14"/>
     </row>
     <row r="245">
-      <c r="A245" s="12"/>
+      <c r="A245" s="14"/>
     </row>
     <row r="246">
-      <c r="A246" s="12"/>
+      <c r="A246" s="14"/>
     </row>
     <row r="247">
-      <c r="A247" s="12"/>
+      <c r="A247" s="14"/>
     </row>
     <row r="248">
-      <c r="A248" s="12"/>
+      <c r="A248" s="14"/>
     </row>
     <row r="249">
-      <c r="A249" s="12"/>
+      <c r="A249" s="14"/>
     </row>
     <row r="250">
-      <c r="A250" s="12"/>
+      <c r="A250" s="14"/>
     </row>
     <row r="251">
-      <c r="A251" s="12"/>
+      <c r="A251" s="14"/>
     </row>
     <row r="252">
-      <c r="A252" s="12"/>
+      <c r="A252" s="14"/>
     </row>
     <row r="253">
-      <c r="A253" s="12"/>
+      <c r="A253" s="14"/>
     </row>
     <row r="254">
-      <c r="A254" s="12"/>
+      <c r="A254" s="14"/>
     </row>
     <row r="255">
-      <c r="A255" s="12"/>
+      <c r="A255" s="14"/>
     </row>
     <row r="256">
-      <c r="A256" s="12"/>
+      <c r="A256" s="14"/>
     </row>
     <row r="257">
-      <c r="A257" s="12"/>
+      <c r="A257" s="14"/>
     </row>
     <row r="258">
-      <c r="A258" s="12"/>
+      <c r="A258" s="14"/>
     </row>
     <row r="259">
-      <c r="A259" s="12"/>
+      <c r="A259" s="14"/>
     </row>
     <row r="260">
-      <c r="A260" s="12"/>
+      <c r="A260" s="14"/>
     </row>
     <row r="261">
-      <c r="A261" s="12"/>
+      <c r="A261" s="14"/>
     </row>
     <row r="262">
-      <c r="A262" s="12"/>
+      <c r="A262" s="14"/>
     </row>
     <row r="263">
-      <c r="A263" s="12"/>
+      <c r="A263" s="14"/>
     </row>
     <row r="264">
-      <c r="A264" s="12"/>
+      <c r="A264" s="14"/>
     </row>
     <row r="265">
-      <c r="A265" s="12"/>
+      <c r="A265" s="14"/>
     </row>
     <row r="266">
-      <c r="A266" s="12"/>
+      <c r="A266" s="14"/>
     </row>
     <row r="267">
-      <c r="A267" s="12"/>
+      <c r="A267" s="14"/>
     </row>
     <row r="268">
-      <c r="A268" s="12"/>
+      <c r="A268" s="14"/>
     </row>
     <row r="269">
-      <c r="A269" s="12"/>
+      <c r="A269" s="14"/>
     </row>
     <row r="270">
-      <c r="A270" s="12"/>
+      <c r="A270" s="14"/>
     </row>
     <row r="271">
-      <c r="A271" s="12"/>
+      <c r="A271" s="14"/>
     </row>
     <row r="272">
-      <c r="A272" s="12"/>
+      <c r="A272" s="14"/>
     </row>
     <row r="273">
-      <c r="A273" s="12"/>
+      <c r="A273" s="14"/>
     </row>
     <row r="274">
-      <c r="A274" s="12"/>
+      <c r="A274" s="14"/>
     </row>
     <row r="275">
-      <c r="A275" s="12"/>
+      <c r="A275" s="14"/>
     </row>
     <row r="276">
-      <c r="A276" s="12"/>
+      <c r="A276" s="14"/>
     </row>
     <row r="277">
-      <c r="A277" s="12"/>
+      <c r="A277" s="14"/>
     </row>
     <row r="278">
-      <c r="A278" s="12"/>
+      <c r="A278" s="14"/>
     </row>
     <row r="279">
-      <c r="A279" s="12"/>
+      <c r="A279" s="14"/>
     </row>
     <row r="280">
-      <c r="A280" s="12"/>
+      <c r="A280" s="14"/>
     </row>
     <row r="281">
-      <c r="A281" s="12"/>
+      <c r="A281" s="14"/>
     </row>
     <row r="282">
-      <c r="A282" s="12"/>
+      <c r="A282" s="14"/>
     </row>
     <row r="283">
-      <c r="A283" s="12"/>
+      <c r="A283" s="14"/>
     </row>
     <row r="284">
-      <c r="A284" s="12"/>
+      <c r="A284" s="14"/>
     </row>
     <row r="285">
-      <c r="A285" s="12"/>
+      <c r="A285" s="14"/>
     </row>
     <row r="286">
-      <c r="A286" s="12"/>
+      <c r="A286" s="14"/>
     </row>
     <row r="287">
-      <c r="A287" s="12"/>
+      <c r="A287" s="14"/>
     </row>
     <row r="288">
-      <c r="A288" s="12"/>
+      <c r="A288" s="14"/>
     </row>
     <row r="289">
-      <c r="A289" s="12"/>
+      <c r="A289" s="14"/>
     </row>
     <row r="290">
-      <c r="A290" s="12"/>
+      <c r="A290" s="14"/>
     </row>
     <row r="291">
-      <c r="A291" s="12"/>
+      <c r="A291" s="14"/>
     </row>
     <row r="292">
-      <c r="A292" s="12"/>
+      <c r="A292" s="14"/>
     </row>
     <row r="293">
-      <c r="A293" s="12"/>
+      <c r="A293" s="14"/>
     </row>
     <row r="294">
-      <c r="A294" s="12"/>
+      <c r="A294" s="14"/>
     </row>
     <row r="295">
-      <c r="A295" s="12"/>
+      <c r="A295" s="14"/>
     </row>
     <row r="296">
-      <c r="A296" s="12"/>
+      <c r="A296" s="14"/>
     </row>
     <row r="297">
-      <c r="A297" s="12"/>
+      <c r="A297" s="14"/>
     </row>
     <row r="298">
-      <c r="A298" s="12"/>
+      <c r="A298" s="14"/>
     </row>
     <row r="299">
-      <c r="A299" s="12"/>
+      <c r="A299" s="14"/>
     </row>
     <row r="300">
-      <c r="A300" s="12"/>
+      <c r="A300" s="14"/>
     </row>
     <row r="301">
-      <c r="A301" s="12"/>
+      <c r="A301" s="14"/>
     </row>
     <row r="302">
-      <c r="A302" s="12"/>
+      <c r="A302" s="14"/>
     </row>
     <row r="303">
-      <c r="A303" s="12"/>
+      <c r="A303" s="14"/>
     </row>
     <row r="304">
-      <c r="A304" s="12"/>
+      <c r="A304" s="14"/>
     </row>
     <row r="305">
-      <c r="A305" s="12"/>
+      <c r="A305" s="14"/>
     </row>
     <row r="306">
-      <c r="A306" s="12"/>
+      <c r="A306" s="14"/>
     </row>
     <row r="307">
-      <c r="A307" s="12"/>
+      <c r="A307" s="14"/>
     </row>
     <row r="308">
-      <c r="A308" s="12"/>
+      <c r="A308" s="14"/>
     </row>
     <row r="309">
-      <c r="A309" s="12"/>
+      <c r="A309" s="14"/>
     </row>
     <row r="310">
-      <c r="A310" s="12"/>
+      <c r="A310" s="14"/>
     </row>
     <row r="311">
-      <c r="A311" s="12"/>
+      <c r="A311" s="14"/>
     </row>
     <row r="312">
-      <c r="A312" s="12"/>
+      <c r="A312" s="14"/>
     </row>
     <row r="313">
-      <c r="A313" s="12"/>
+      <c r="A313" s="14"/>
     </row>
     <row r="314">
-      <c r="A314" s="12"/>
+      <c r="A314" s="14"/>
     </row>
     <row r="315">
-      <c r="A315" s="12"/>
+      <c r="A315" s="14"/>
     </row>
     <row r="316">
-      <c r="A316" s="12"/>
+      <c r="A316" s="14"/>
     </row>
     <row r="317">
-      <c r="A317" s="12"/>
+      <c r="A317" s="14"/>
     </row>
     <row r="318">
-      <c r="A318" s="12"/>
+      <c r="A318" s="14"/>
     </row>
     <row r="319">
-      <c r="A319" s="12"/>
+      <c r="A319" s="14"/>
     </row>
     <row r="320">
-      <c r="A320" s="12"/>
+      <c r="A320" s="14"/>
     </row>
     <row r="321">
-      <c r="A321" s="12"/>
+      <c r="A321" s="14"/>
     </row>
     <row r="322">
-      <c r="A322" s="12"/>
+      <c r="A322" s="14"/>
     </row>
     <row r="323">
-      <c r="A323" s="12"/>
+      <c r="A323" s="14"/>
     </row>
     <row r="324">
-      <c r="A324" s="12"/>
+      <c r="A324" s="14"/>
     </row>
     <row r="325">
-      <c r="A325" s="12"/>
+      <c r="A325" s="14"/>
     </row>
     <row r="326">
-      <c r="A326" s="12"/>
+      <c r="A326" s="14"/>
     </row>
     <row r="327">
-      <c r="A327" s="12"/>
+      <c r="A327" s="14"/>
     </row>
     <row r="328">
-      <c r="A328" s="12"/>
+      <c r="A328" s="14"/>
     </row>
     <row r="329">
-      <c r="A329" s="12"/>
+      <c r="A329" s="14"/>
     </row>
     <row r="330">
-      <c r="A330" s="12"/>
+      <c r="A330" s="14"/>
     </row>
     <row r="331">
-      <c r="A331" s="12"/>
+      <c r="A331" s="14"/>
     </row>
     <row r="332">
-      <c r="A332" s="12"/>
+      <c r="A332" s="14"/>
     </row>
     <row r="333">
-      <c r="A333" s="12"/>
+      <c r="A333" s="14"/>
     </row>
     <row r="334">
-      <c r="A334" s="12"/>
+      <c r="A334" s="14"/>
     </row>
     <row r="335">
-      <c r="A335" s="12"/>
+      <c r="A335" s="14"/>
     </row>
     <row r="336">
-      <c r="A336" s="12"/>
+      <c r="A336" s="14"/>
     </row>
     <row r="337">
-      <c r="A337" s="12"/>
+      <c r="A337" s="14"/>
     </row>
     <row r="338">
-      <c r="A338" s="12"/>
+      <c r="A338" s="14"/>
     </row>
     <row r="339">
-      <c r="A339" s="12"/>
+      <c r="A339" s="14"/>
     </row>
     <row r="340">
-      <c r="A340" s="12"/>
+      <c r="A340" s="14"/>
     </row>
     <row r="341">
-      <c r="A341" s="12"/>
+      <c r="A341" s="14"/>
     </row>
     <row r="342">
-      <c r="A342" s="12"/>
+      <c r="A342" s="14"/>
     </row>
     <row r="343">
-      <c r="A343" s="12"/>
+      <c r="A343" s="14"/>
     </row>
     <row r="344">
-      <c r="A344" s="12"/>
+      <c r="A344" s="14"/>
     </row>
     <row r="345">
-      <c r="A345" s="12"/>
+      <c r="A345" s="14"/>
     </row>
     <row r="346">
-      <c r="A346" s="12"/>
+      <c r="A346" s="14"/>
     </row>
     <row r="347">
-      <c r="A347" s="12"/>
+      <c r="A347" s="14"/>
     </row>
     <row r="348">
-      <c r="A348" s="12"/>
+      <c r="A348" s="14"/>
     </row>
     <row r="349">
-      <c r="A349" s="12"/>
+      <c r="A349" s="14"/>
     </row>
     <row r="350">
-      <c r="A350" s="12"/>
+      <c r="A350" s="14"/>
     </row>
     <row r="351">
-      <c r="A351" s="12"/>
+      <c r="A351" s="14"/>
     </row>
     <row r="352">
-      <c r="A352" s="12"/>
+      <c r="A352" s="14"/>
     </row>
     <row r="353">
-      <c r="A353" s="12"/>
+      <c r="A353" s="14"/>
     </row>
     <row r="354">
-      <c r="A354" s="12"/>
+      <c r="A354" s="14"/>
     </row>
     <row r="355">
-      <c r="A355" s="12"/>
+      <c r="A355" s="14"/>
     </row>
     <row r="356">
-      <c r="A356" s="12"/>
+      <c r="A356" s="14"/>
     </row>
     <row r="357">
-      <c r="A357" s="12"/>
+      <c r="A357" s="14"/>
     </row>
     <row r="358">
-      <c r="A358" s="12"/>
+      <c r="A358" s="14"/>
     </row>
     <row r="359">
-      <c r="A359" s="12"/>
+      <c r="A359" s="14"/>
     </row>
     <row r="360">
-      <c r="A360" s="12"/>
+      <c r="A360" s="14"/>
     </row>
     <row r="361">
-      <c r="A361" s="12"/>
+      <c r="A361" s="14"/>
     </row>
     <row r="362">
-      <c r="A362" s="12"/>
+      <c r="A362" s="14"/>
     </row>
     <row r="363">
-      <c r="A363" s="12"/>
+      <c r="A363" s="14"/>
     </row>
     <row r="364">
-      <c r="A364" s="12"/>
+      <c r="A364" s="14"/>
     </row>
     <row r="365">
-      <c r="A365" s="12"/>
+      <c r="A365" s="14"/>
     </row>
     <row r="366">
-      <c r="A366" s="12"/>
+      <c r="A366" s="14"/>
     </row>
     <row r="367">
-      <c r="A367" s="12"/>
+      <c r="A367" s="14"/>
     </row>
     <row r="368">
-      <c r="A368" s="12"/>
+      <c r="A368" s="14"/>
     </row>
     <row r="369">
-      <c r="A369" s="12"/>
+      <c r="A369" s="14"/>
     </row>
     <row r="370">
-      <c r="A370" s="12"/>
+      <c r="A370" s="14"/>
     </row>
     <row r="371">
-      <c r="A371" s="12"/>
+      <c r="A371" s="14"/>
     </row>
     <row r="372">
-      <c r="A372" s="12"/>
+      <c r="A372" s="14"/>
     </row>
     <row r="373">
-      <c r="A373" s="12"/>
+      <c r="A373" s="14"/>
     </row>
     <row r="374">
-      <c r="A374" s="12"/>
+      <c r="A374" s="14"/>
     </row>
     <row r="375">
-      <c r="A375" s="12"/>
+      <c r="A375" s="14"/>
     </row>
     <row r="376">
-      <c r="A376" s="12"/>
+      <c r="A376" s="14"/>
     </row>
     <row r="377">
-      <c r="A377" s="12"/>
+      <c r="A377" s="14"/>
     </row>
     <row r="378">
-      <c r="A378" s="12"/>
+      <c r="A378" s="14"/>
     </row>
     <row r="379">
-      <c r="A379" s="12"/>
+      <c r="A379" s="14"/>
     </row>
     <row r="380">
-      <c r="A380" s="12"/>
+      <c r="A380" s="14"/>
     </row>
     <row r="381">
-      <c r="A381" s="12"/>
+      <c r="A381" s="14"/>
     </row>
     <row r="382">
-      <c r="A382" s="12"/>
+      <c r="A382" s="14"/>
     </row>
     <row r="383">
-      <c r="A383" s="12"/>
+      <c r="A383" s="14"/>
     </row>
     <row r="384">
-      <c r="A384" s="12"/>
+      <c r="A384" s="14"/>
     </row>
     <row r="385">
-      <c r="A385" s="12"/>
+      <c r="A385" s="14"/>
     </row>
     <row r="386">
-      <c r="A386" s="12"/>
+      <c r="A386" s="14"/>
     </row>
     <row r="387">
-      <c r="A387" s="12"/>
+      <c r="A387" s="14"/>
     </row>
     <row r="388">
-      <c r="A388" s="12"/>
+      <c r="A388" s="14"/>
     </row>
     <row r="389">
-      <c r="A389" s="12"/>
+      <c r="A389" s="14"/>
     </row>
     <row r="390">
-      <c r="A390" s="12"/>
+      <c r="A390" s="14"/>
     </row>
     <row r="391">
-      <c r="A391" s="12"/>
+      <c r="A391" s="14"/>
     </row>
     <row r="392">
-      <c r="A392" s="12"/>
+      <c r="A392" s="14"/>
     </row>
     <row r="393">
-      <c r="A393" s="12"/>
+      <c r="A393" s="14"/>
     </row>
     <row r="394">
-      <c r="A394" s="12"/>
+      <c r="A394" s="14"/>
     </row>
     <row r="395">
-      <c r="A395" s="12"/>
+      <c r="A395" s="14"/>
     </row>
     <row r="396">
-      <c r="A396" s="12"/>
+      <c r="A396" s="14"/>
     </row>
     <row r="397">
-      <c r="A397" s="12"/>
+      <c r="A397" s="14"/>
     </row>
     <row r="398">
-      <c r="A398" s="12"/>
+      <c r="A398" s="14"/>
     </row>
     <row r="399">
-      <c r="A399" s="12"/>
+      <c r="A399" s="14"/>
     </row>
     <row r="400">
-      <c r="A400" s="12"/>
+      <c r="A400" s="14"/>
     </row>
     <row r="401">
-      <c r="A401" s="12"/>
+      <c r="A401" s="14"/>
     </row>
     <row r="402">
-      <c r="A402" s="12"/>
+      <c r="A402" s="14"/>
     </row>
     <row r="403">
-      <c r="A403" s="12"/>
+      <c r="A403" s="14"/>
     </row>
     <row r="404">
-      <c r="A404" s="12"/>
+      <c r="A404" s="14"/>
     </row>
     <row r="405">
-      <c r="A405" s="12"/>
+      <c r="A405" s="14"/>
     </row>
     <row r="406">
-      <c r="A406" s="12"/>
+      <c r="A406" s="14"/>
     </row>
     <row r="407">
-      <c r="A407" s="12"/>
+      <c r="A407" s="14"/>
     </row>
     <row r="408">
-      <c r="A408" s="12"/>
+      <c r="A408" s="14"/>
     </row>
     <row r="409">
-      <c r="A409" s="12"/>
+      <c r="A409" s="14"/>
     </row>
     <row r="410">
-      <c r="A410" s="12"/>
+      <c r="A410" s="14"/>
     </row>
     <row r="411">
-      <c r="A411" s="12"/>
+      <c r="A411" s="14"/>
     </row>
     <row r="412">
-      <c r="A412" s="12"/>
+      <c r="A412" s="14"/>
     </row>
     <row r="413">
-      <c r="A413" s="12"/>
+      <c r="A413" s="14"/>
     </row>
     <row r="414">
-      <c r="A414" s="12"/>
+      <c r="A414" s="14"/>
     </row>
     <row r="415">
-      <c r="A415" s="12"/>
+      <c r="A415" s="14"/>
     </row>
     <row r="416">
-      <c r="A416" s="12"/>
+      <c r="A416" s="14"/>
     </row>
     <row r="417">
-      <c r="A417" s="12"/>
+      <c r="A417" s="14"/>
     </row>
     <row r="418">
-      <c r="A418" s="12"/>
+      <c r="A418" s="14"/>
     </row>
     <row r="419">
-      <c r="A419" s="12"/>
+      <c r="A419" s="14"/>
     </row>
     <row r="420">
-      <c r="A420" s="12"/>
+      <c r="A420" s="14"/>
     </row>
     <row r="421">
-      <c r="A421" s="12"/>
+      <c r="A421" s="14"/>
     </row>
     <row r="422">
-      <c r="A422" s="12"/>
+      <c r="A422" s="14"/>
     </row>
     <row r="423">
-      <c r="A423" s="12"/>
+      <c r="A423" s="14"/>
     </row>
     <row r="424">
-      <c r="A424" s="12"/>
+      <c r="A424" s="14"/>
     </row>
     <row r="425">
-      <c r="A425" s="12"/>
+      <c r="A425" s="14"/>
     </row>
     <row r="426">
-      <c r="A426" s="12"/>
+      <c r="A426" s="14"/>
     </row>
     <row r="427">
-      <c r="A427" s="12"/>
+      <c r="A427" s="14"/>
     </row>
     <row r="428">
-      <c r="A428" s="12"/>
+      <c r="A428" s="14"/>
     </row>
     <row r="429">
-      <c r="A429" s="12"/>
+      <c r="A429" s="14"/>
     </row>
     <row r="430">
-      <c r="A430" s="12"/>
+      <c r="A430" s="14"/>
     </row>
     <row r="431">
-      <c r="A431" s="12"/>
+      <c r="A431" s="14"/>
     </row>
     <row r="432">
-      <c r="A432" s="12"/>
+      <c r="A432" s="14"/>
     </row>
     <row r="433">
-      <c r="A433" s="12"/>
+      <c r="A433" s="14"/>
     </row>
     <row r="434">
-      <c r="A434" s="12"/>
+      <c r="A434" s="14"/>
     </row>
     <row r="435">
-      <c r="A435" s="12"/>
+      <c r="A435" s="14"/>
     </row>
     <row r="436">
-      <c r="A436" s="12"/>
+      <c r="A436" s="14"/>
     </row>
     <row r="437">
-      <c r="A437" s="12"/>
+      <c r="A437" s="14"/>
     </row>
     <row r="438">
-      <c r="A438" s="12"/>
+      <c r="A438" s="14"/>
     </row>
     <row r="439">
-      <c r="A439" s="12"/>
+      <c r="A439" s="14"/>
     </row>
     <row r="440">
-      <c r="A440" s="12"/>
+      <c r="A440" s="14"/>
     </row>
     <row r="441">
-      <c r="A441" s="12"/>
+      <c r="A441" s="14"/>
     </row>
     <row r="442">
-      <c r="A442" s="12"/>
+      <c r="A442" s="14"/>
     </row>
     <row r="443">
-      <c r="A443" s="12"/>
+      <c r="A443" s="14"/>
     </row>
     <row r="444">
-      <c r="A444" s="12"/>
+      <c r="A444" s="14"/>
     </row>
     <row r="445">
-      <c r="A445" s="12"/>
+      <c r="A445" s="14"/>
     </row>
     <row r="446">
-      <c r="A446" s="12"/>
+      <c r="A446" s="14"/>
     </row>
     <row r="447">
-      <c r="A447" s="12"/>
+      <c r="A447" s="14"/>
     </row>
     <row r="448">
-      <c r="A448" s="12"/>
+      <c r="A448" s="14"/>
     </row>
     <row r="449">
-      <c r="A449" s="12"/>
+      <c r="A449" s="14"/>
     </row>
     <row r="450">
-      <c r="A450" s="12"/>
+      <c r="A450" s="14"/>
     </row>
     <row r="451">
-      <c r="A451" s="12"/>
+      <c r="A451" s="14"/>
     </row>
     <row r="452">
-      <c r="A452" s="12"/>
+      <c r="A452" s="14"/>
     </row>
     <row r="453">
-      <c r="A453" s="12"/>
+      <c r="A453" s="14"/>
     </row>
     <row r="454">
-      <c r="A454" s="12"/>
+      <c r="A454" s="14"/>
     </row>
     <row r="455">
-      <c r="A455" s="12"/>
+      <c r="A455" s="14"/>
     </row>
     <row r="456">
-      <c r="A456" s="12"/>
+      <c r="A456" s="14"/>
     </row>
     <row r="457">
-      <c r="A457" s="12"/>
+      <c r="A457" s="14"/>
     </row>
     <row r="458">
-      <c r="A458" s="12"/>
+      <c r="A458" s="14"/>
     </row>
     <row r="459">
-      <c r="A459" s="12"/>
+      <c r="A459" s="14"/>
     </row>
     <row r="460">
-      <c r="A460" s="12"/>
+      <c r="A460" s="14"/>
     </row>
     <row r="461">
-      <c r="A461" s="12"/>
+      <c r="A461" s="14"/>
     </row>
     <row r="462">
-      <c r="A462" s="12"/>
+      <c r="A462" s="14"/>
     </row>
     <row r="463">
-      <c r="A463" s="12"/>
+      <c r="A463" s="14"/>
     </row>
     <row r="464">
-      <c r="A464" s="12"/>
+      <c r="A464" s="14"/>
     </row>
     <row r="465">
-      <c r="A465" s="12"/>
+      <c r="A465" s="14"/>
     </row>
     <row r="466">
-      <c r="A466" s="12"/>
+      <c r="A466" s="14"/>
     </row>
     <row r="467">
-      <c r="A467" s="12"/>
+      <c r="A467" s="14"/>
     </row>
     <row r="468">
-      <c r="A468" s="12"/>
+      <c r="A468" s="14"/>
     </row>
     <row r="469">
-      <c r="A469" s="12"/>
+      <c r="A469" s="14"/>
     </row>
     <row r="470">
-      <c r="A470" s="12"/>
+      <c r="A470" s="14"/>
     </row>
     <row r="471">
-      <c r="A471" s="12"/>
+      <c r="A471" s="14"/>
     </row>
     <row r="472">
-      <c r="A472" s="12"/>
+      <c r="A472" s="14"/>
     </row>
     <row r="473">
-      <c r="A473" s="12"/>
+      <c r="A473" s="14"/>
     </row>
     <row r="474">
-      <c r="A474" s="12"/>
+      <c r="A474" s="14"/>
     </row>
     <row r="475">
-      <c r="A475" s="12"/>
+      <c r="A475" s="14"/>
     </row>
     <row r="476">
-      <c r="A476" s="12"/>
+      <c r="A476" s="14"/>
     </row>
     <row r="477">
-      <c r="A477" s="12"/>
+      <c r="A477" s="14"/>
     </row>
     <row r="478">
-      <c r="A478" s="12"/>
+      <c r="A478" s="14"/>
     </row>
     <row r="479">
-      <c r="A479" s="12"/>
+      <c r="A479" s="14"/>
     </row>
     <row r="480">
-      <c r="A480" s="12"/>
+      <c r="A480" s="14"/>
     </row>
     <row r="481">
-      <c r="A481" s="12"/>
+      <c r="A481" s="14"/>
     </row>
     <row r="482">
-      <c r="A482" s="12"/>
+      <c r="A482" s="14"/>
     </row>
     <row r="483">
-      <c r="A483" s="12"/>
+      <c r="A483" s="14"/>
     </row>
     <row r="484">
-      <c r="A484" s="12"/>
+      <c r="A484" s="14"/>
     </row>
     <row r="485">
-      <c r="A485" s="12"/>
+      <c r="A485" s="14"/>
     </row>
     <row r="486">
-      <c r="A486" s="12"/>
+      <c r="A486" s="14"/>
     </row>
     <row r="487">
-      <c r="A487" s="12"/>
+      <c r="A487" s="14"/>
     </row>
     <row r="488">
-      <c r="A488" s="12"/>
+      <c r="A488" s="14"/>
     </row>
     <row r="489">
-      <c r="A489" s="12"/>
+      <c r="A489" s="14"/>
     </row>
     <row r="490">
-      <c r="A490" s="12"/>
+      <c r="A490" s="14"/>
     </row>
     <row r="491">
-      <c r="A491" s="12"/>
+      <c r="A491" s="14"/>
     </row>
     <row r="492">
-      <c r="A492" s="12"/>
+      <c r="A492" s="14"/>
     </row>
     <row r="493">
-      <c r="A493" s="12"/>
+      <c r="A493" s="14"/>
     </row>
     <row r="494">
-      <c r="A494" s="12"/>
+      <c r="A494" s="14"/>
     </row>
     <row r="495">
-      <c r="A495" s="12"/>
+      <c r="A495" s="14"/>
     </row>
     <row r="496">
-      <c r="A496" s="12"/>
+      <c r="A496" s="14"/>
     </row>
     <row r="497">
-      <c r="A497" s="12"/>
+      <c r="A497" s="14"/>
     </row>
     <row r="498">
-      <c r="A498" s="12"/>
+      <c r="A498" s="14"/>
     </row>
     <row r="499">
-      <c r="A499" s="12"/>
+      <c r="A499" s="14"/>
     </row>
     <row r="500">
-      <c r="A500" s="12"/>
+      <c r="A500" s="14"/>
     </row>
     <row r="501">
-      <c r="A501" s="12"/>
+      <c r="A501" s="14"/>
     </row>
     <row r="502">
-      <c r="A502" s="12"/>
+      <c r="A502" s="14"/>
     </row>
     <row r="503">
-      <c r="A503" s="12"/>
+      <c r="A503" s="14"/>
     </row>
     <row r="504">
-      <c r="A504" s="12"/>
+      <c r="A504" s="14"/>
     </row>
     <row r="505">
-      <c r="A505" s="12"/>
+      <c r="A505" s="14"/>
     </row>
     <row r="506">
-      <c r="A506" s="12"/>
+      <c r="A506" s="14"/>
     </row>
     <row r="507">
-      <c r="A507" s="12"/>
+      <c r="A507" s="14"/>
     </row>
     <row r="508">
-      <c r="A508" s="12"/>
+      <c r="A508" s="14"/>
     </row>
     <row r="509">
-      <c r="A509" s="12"/>
+      <c r="A509" s="14"/>
     </row>
     <row r="510">
-      <c r="A510" s="12"/>
+      <c r="A510" s="14"/>
     </row>
     <row r="511">
-      <c r="A511" s="12"/>
+      <c r="A511" s="14"/>
     </row>
     <row r="512">
-      <c r="A512" s="12"/>
+      <c r="A512" s="14"/>
     </row>
     <row r="513">
-      <c r="A513" s="12"/>
+      <c r="A513" s="14"/>
     </row>
     <row r="514">
-      <c r="A514" s="12"/>
+      <c r="A514" s="14"/>
     </row>
     <row r="515">
-      <c r="A515" s="12"/>
+      <c r="A515" s="14"/>
     </row>
     <row r="516">
-      <c r="A516" s="12"/>
+      <c r="A516" s="14"/>
     </row>
     <row r="517">
-      <c r="A517" s="12"/>
+      <c r="A517" s="14"/>
     </row>
     <row r="518">
-      <c r="A518" s="12"/>
+      <c r="A518" s="14"/>
     </row>
     <row r="519">
-      <c r="A519" s="12"/>
+      <c r="A519" s="14"/>
     </row>
     <row r="520">
-      <c r="A520" s="12"/>
+      <c r="A520" s="14"/>
     </row>
     <row r="521">
-      <c r="A521" s="12"/>
+      <c r="A521" s="14"/>
     </row>
     <row r="522">
-      <c r="A522" s="12"/>
+      <c r="A522" s="14"/>
     </row>
     <row r="523">
-      <c r="A523" s="12"/>
+      <c r="A523" s="14"/>
     </row>
     <row r="524">
-      <c r="A524" s="12"/>
+      <c r="A524" s="14"/>
     </row>
     <row r="525">
-      <c r="A525" s="12"/>
+      <c r="A525" s="14"/>
     </row>
     <row r="526">
-      <c r="A526" s="12"/>
+      <c r="A526" s="14"/>
     </row>
     <row r="527">
-      <c r="A527" s="12"/>
+      <c r="A527" s="14"/>
     </row>
     <row r="528">
-      <c r="A528" s="12"/>
+      <c r="A528" s="14"/>
     </row>
     <row r="529">
-      <c r="A529" s="12"/>
+      <c r="A529" s="14"/>
     </row>
     <row r="530">
-      <c r="A530" s="12"/>
+      <c r="A530" s="14"/>
     </row>
     <row r="531">
-      <c r="A531" s="12"/>
+      <c r="A531" s="14"/>
     </row>
     <row r="532">
-      <c r="A532" s="12"/>
+      <c r="A532" s="14"/>
     </row>
     <row r="533">
-      <c r="A533" s="12"/>
+      <c r="A533" s="14"/>
     </row>
     <row r="534">
-      <c r="A534" s="12"/>
+      <c r="A534" s="14"/>
     </row>
     <row r="535">
-      <c r="A535" s="12"/>
+      <c r="A535" s="14"/>
     </row>
     <row r="536">
-      <c r="A536" s="12"/>
+      <c r="A536" s="14"/>
     </row>
     <row r="537">
-      <c r="A537" s="12"/>
+      <c r="A537" s="14"/>
     </row>
     <row r="538">
-      <c r="A538" s="12"/>
+      <c r="A538" s="14"/>
     </row>
     <row r="539">
-      <c r="A539" s="12"/>
+      <c r="A539" s="14"/>
     </row>
     <row r="540">
-      <c r="A540" s="12"/>
+      <c r="A540" s="14"/>
     </row>
     <row r="541">
-      <c r="A541" s="12"/>
+      <c r="A541" s="14"/>
     </row>
     <row r="542">
-      <c r="A542" s="12"/>
+      <c r="A542" s="14"/>
     </row>
     <row r="543">
-      <c r="A543" s="12"/>
+      <c r="A543" s="14"/>
     </row>
     <row r="544">
-      <c r="A544" s="12"/>
+      <c r="A544" s="14"/>
     </row>
     <row r="545">
-      <c r="A545" s="12"/>
+      <c r="A545" s="14"/>
     </row>
     <row r="546">
-      <c r="A546" s="12"/>
+      <c r="A546" s="14"/>
     </row>
     <row r="547">
-      <c r="A547" s="12"/>
+      <c r="A547" s="14"/>
     </row>
     <row r="548">
-      <c r="A548" s="12"/>
+      <c r="A548" s="14"/>
     </row>
     <row r="549">
-      <c r="A549" s="12"/>
+      <c r="A549" s="14"/>
     </row>
     <row r="550">
-      <c r="A550" s="12"/>
+      <c r="A550" s="14"/>
     </row>
     <row r="551">
-      <c r="A551" s="12"/>
+      <c r="A551" s="14"/>
     </row>
     <row r="552">
-      <c r="A552" s="12"/>
+      <c r="A552" s="14"/>
     </row>
     <row r="553">
-      <c r="A553" s="12"/>
+      <c r="A553" s="14"/>
     </row>
     <row r="554">
-      <c r="A554" s="12"/>
+      <c r="A554" s="14"/>
     </row>
     <row r="555">
-      <c r="A555" s="12"/>
+      <c r="A555" s="14"/>
     </row>
     <row r="556">
-      <c r="A556" s="12"/>
+      <c r="A556" s="14"/>
     </row>
     <row r="557">
-      <c r="A557" s="12"/>
+      <c r="A557" s="14"/>
     </row>
     <row r="558">
-      <c r="A558" s="12"/>
+      <c r="A558" s="14"/>
     </row>
     <row r="559">
-      <c r="A559" s="12"/>
+      <c r="A559" s="14"/>
     </row>
     <row r="560">
-      <c r="A560" s="12"/>
+      <c r="A560" s="14"/>
     </row>
     <row r="561">
-      <c r="A561" s="12"/>
+      <c r="A561" s="14"/>
     </row>
     <row r="562">
-      <c r="A562" s="12"/>
+      <c r="A562" s="14"/>
     </row>
     <row r="563">
-      <c r="A563" s="12"/>
+      <c r="A563" s="14"/>
     </row>
     <row r="564">
-      <c r="A564" s="12"/>
+      <c r="A564" s="14"/>
     </row>
     <row r="565">
-      <c r="A565" s="12"/>
+      <c r="A565" s="14"/>
     </row>
     <row r="566">
-      <c r="A566" s="12"/>
+      <c r="A566" s="14"/>
     </row>
     <row r="567">
-      <c r="A567" s="12"/>
+      <c r="A567" s="14"/>
     </row>
     <row r="568">
-      <c r="A568" s="12"/>
+      <c r="A568" s="14"/>
     </row>
     <row r="569">
-      <c r="A569" s="12"/>
+      <c r="A569" s="14"/>
     </row>
     <row r="570">
-      <c r="A570" s="12"/>
+      <c r="A570" s="14"/>
     </row>
     <row r="571">
-      <c r="A571" s="12"/>
+      <c r="A571" s="14"/>
     </row>
     <row r="572">
-      <c r="A572" s="12"/>
+      <c r="A572" s="14"/>
     </row>
     <row r="573">
-      <c r="A573" s="12"/>
+      <c r="A573" s="14"/>
     </row>
     <row r="574">
-      <c r="A574" s="12"/>
+      <c r="A574" s="14"/>
     </row>
     <row r="575">
-      <c r="A575" s="12"/>
+      <c r="A575" s="14"/>
     </row>
     <row r="576">
-      <c r="A576" s="12"/>
+      <c r="A576" s="14"/>
     </row>
     <row r="577">
-      <c r="A577" s="12"/>
+      <c r="A577" s="14"/>
     </row>
     <row r="578">
-      <c r="A578" s="12"/>
+      <c r="A578" s="14"/>
     </row>
     <row r="579">
-      <c r="A579" s="12"/>
+      <c r="A579" s="14"/>
     </row>
     <row r="580">
-      <c r="A580" s="12"/>
+      <c r="A580" s="14"/>
     </row>
     <row r="581">
-      <c r="A581" s="12"/>
+      <c r="A581" s="14"/>
     </row>
     <row r="582">
-      <c r="A582" s="12"/>
+      <c r="A582" s="14"/>
     </row>
     <row r="583">
-      <c r="A583" s="12"/>
+      <c r="A583" s="14"/>
     </row>
     <row r="584">
-      <c r="A584" s="12"/>
+      <c r="A584" s="14"/>
     </row>
     <row r="585">
-      <c r="A585" s="12"/>
+      <c r="A585" s="14"/>
     </row>
     <row r="586">
-      <c r="A586" s="12"/>
+      <c r="A586" s="14"/>
     </row>
     <row r="587">
-      <c r="A587" s="12"/>
+      <c r="A587" s="14"/>
     </row>
     <row r="588">
-      <c r="A588" s="12"/>
+      <c r="A588" s="14"/>
     </row>
     <row r="589">
-      <c r="A589" s="12"/>
+      <c r="A589" s="14"/>
     </row>
     <row r="590">
-      <c r="A590" s="12"/>
+      <c r="A590" s="14"/>
     </row>
     <row r="591">
-      <c r="A591" s="12"/>
+      <c r="A591" s="14"/>
     </row>
     <row r="592">
-      <c r="A592" s="12"/>
+      <c r="A592" s="14"/>
     </row>
     <row r="593">
-      <c r="A593" s="12"/>
+      <c r="A593" s="14"/>
     </row>
     <row r="594">
-      <c r="A594" s="12"/>
+      <c r="A594" s="14"/>
     </row>
     <row r="595">
-      <c r="A595" s="12"/>
+      <c r="A595" s="14"/>
     </row>
     <row r="596">
-      <c r="A596" s="12"/>
+      <c r="A596" s="14"/>
     </row>
     <row r="597">
-      <c r="A597" s="12"/>
+      <c r="A597" s="14"/>
     </row>
     <row r="598">
-      <c r="A598" s="12"/>
+      <c r="A598" s="14"/>
     </row>
     <row r="599">
-      <c r="A599" s="12"/>
+      <c r="A599" s="14"/>
     </row>
     <row r="600">
-      <c r="A600" s="12"/>
+      <c r="A600" s="14"/>
     </row>
     <row r="601">
-      <c r="A601" s="12"/>
+      <c r="A601" s="14"/>
     </row>
     <row r="602">
-      <c r="A602" s="12"/>
+      <c r="A602" s="14"/>
     </row>
     <row r="603">
-      <c r="A603" s="12"/>
+      <c r="A603" s="14"/>
     </row>
     <row r="604">
-      <c r="A604" s="12"/>
+      <c r="A604" s="14"/>
     </row>
     <row r="605">
-      <c r="A605" s="12"/>
+      <c r="A605" s="14"/>
     </row>
     <row r="606">
-      <c r="A606" s="12"/>
+      <c r="A606" s="14"/>
     </row>
     <row r="607">
-      <c r="A607" s="12"/>
+      <c r="A607" s="14"/>
     </row>
     <row r="608">
-      <c r="A608" s="12"/>
+      <c r="A608" s="14"/>
     </row>
     <row r="609">
-      <c r="A609" s="12"/>
+      <c r="A609" s="14"/>
     </row>
     <row r="610">
-      <c r="A610" s="12"/>
+      <c r="A610" s="14"/>
     </row>
     <row r="611">
-      <c r="A611" s="12"/>
+      <c r="A611" s="14"/>
     </row>
     <row r="612">
-      <c r="A612" s="12"/>
+      <c r="A612" s="14"/>
     </row>
     <row r="613">
-      <c r="A613" s="12"/>
+      <c r="A613" s="14"/>
     </row>
     <row r="614">
-      <c r="A614" s="12"/>
+      <c r="A614" s="14"/>
     </row>
     <row r="615">
-      <c r="A615" s="12"/>
+      <c r="A615" s="14"/>
     </row>
     <row r="616">
-      <c r="A616" s="12"/>
+      <c r="A616" s="14"/>
     </row>
     <row r="617">
-      <c r="A617" s="12"/>
+      <c r="A617" s="14"/>
     </row>
     <row r="618">
-      <c r="A618" s="12"/>
+      <c r="A618" s="14"/>
     </row>
     <row r="619">
-      <c r="A619" s="12"/>
+      <c r="A619" s="14"/>
     </row>
     <row r="620">
-      <c r="A620" s="12"/>
+      <c r="A620" s="14"/>
     </row>
     <row r="621">
-      <c r="A621" s="12"/>
+      <c r="A621" s="14"/>
     </row>
     <row r="622">
-      <c r="A622" s="12"/>
+      <c r="A622" s="14"/>
     </row>
     <row r="623">
-      <c r="A623" s="12"/>
+      <c r="A623" s="14"/>
     </row>
     <row r="624">
-      <c r="A624" s="12"/>
+      <c r="A624" s="14"/>
     </row>
     <row r="625">
-      <c r="A625" s="12"/>
+      <c r="A625" s="14"/>
     </row>
     <row r="626">
-      <c r="A626" s="12"/>
+      <c r="A626" s="14"/>
     </row>
     <row r="627">
-      <c r="A627" s="12"/>
+      <c r="A627" s="14"/>
     </row>
     <row r="628">
-      <c r="A628" s="12"/>
+      <c r="A628" s="14"/>
     </row>
     <row r="629">
-      <c r="A629" s="12"/>
+      <c r="A629" s="14"/>
     </row>
     <row r="630">
-      <c r="A630" s="12"/>
+      <c r="A630" s="14"/>
     </row>
     <row r="631">
-      <c r="A631" s="12"/>
+      <c r="A631" s="14"/>
     </row>
     <row r="632">
-      <c r="A632" s="12"/>
+      <c r="A632" s="14"/>
     </row>
     <row r="633">
-      <c r="A633" s="12"/>
+      <c r="A633" s="14"/>
     </row>
     <row r="634">
-      <c r="A634" s="12"/>
+      <c r="A634" s="14"/>
     </row>
     <row r="635">
-      <c r="A635" s="12"/>
+      <c r="A635" s="14"/>
     </row>
     <row r="636">
-      <c r="A636" s="12"/>
+      <c r="A636" s="14"/>
     </row>
     <row r="637">
-      <c r="A637" s="12"/>
+      <c r="A637" s="14"/>
     </row>
     <row r="638">
-      <c r="A638" s="12"/>
+      <c r="A638" s="14"/>
     </row>
     <row r="639">
-      <c r="A639" s="12"/>
+      <c r="A639" s="14"/>
     </row>
     <row r="640">
-      <c r="A640" s="12"/>
+      <c r="A640" s="14"/>
     </row>
     <row r="641">
-      <c r="A641" s="12"/>
+      <c r="A641" s="14"/>
     </row>
     <row r="642">
-      <c r="A642" s="12"/>
+      <c r="A642" s="14"/>
     </row>
     <row r="643">
-      <c r="A643" s="12"/>
+      <c r="A643" s="14"/>
     </row>
     <row r="644">
-      <c r="A644" s="12"/>
+      <c r="A644" s="14"/>
     </row>
     <row r="645">
-      <c r="A645" s="12"/>
+      <c r="A645" s="14"/>
     </row>
     <row r="646">
-      <c r="A646" s="12"/>
+      <c r="A646" s="14"/>
     </row>
     <row r="647">
-      <c r="A647" s="12"/>
+      <c r="A647" s="14"/>
     </row>
     <row r="648">
-      <c r="A648" s="12"/>
+      <c r="A648" s="14"/>
     </row>
     <row r="649">
-      <c r="A649" s="12"/>
+      <c r="A649" s="14"/>
     </row>
     <row r="650">
-      <c r="A650" s="12"/>
+      <c r="A650" s="14"/>
     </row>
     <row r="651">
-      <c r="A651" s="12"/>
+      <c r="A651" s="14"/>
     </row>
     <row r="652">
-      <c r="A652" s="12"/>
+      <c r="A652" s="14"/>
     </row>
     <row r="653">
-      <c r="A653" s="12"/>
+      <c r="A653" s="14"/>
     </row>
     <row r="654">
-      <c r="A654" s="12"/>
+      <c r="A654" s="14"/>
     </row>
     <row r="655">
-      <c r="A655" s="12"/>
+      <c r="A655" s="14"/>
     </row>
     <row r="656">
-      <c r="A656" s="12"/>
+      <c r="A656" s="14"/>
     </row>
     <row r="657">
-      <c r="A657" s="12"/>
+      <c r="A657" s="14"/>
     </row>
     <row r="658">
-      <c r="A658" s="12"/>
+      <c r="A658" s="14"/>
     </row>
     <row r="659">
-      <c r="A659" s="12"/>
+      <c r="A659" s="14"/>
     </row>
     <row r="660">
-      <c r="A660" s="12"/>
+      <c r="A660" s="14"/>
     </row>
     <row r="661">
-      <c r="A661" s="12"/>
+      <c r="A661" s="14"/>
     </row>
     <row r="662">
-      <c r="A662" s="12"/>
+      <c r="A662" s="14"/>
     </row>
     <row r="663">
-      <c r="A663" s="12"/>
+      <c r="A663" s="14"/>
     </row>
     <row r="664">
-      <c r="A664" s="12"/>
+      <c r="A664" s="14"/>
     </row>
     <row r="665">
-      <c r="A665" s="12"/>
+      <c r="A665" s="14"/>
     </row>
     <row r="666">
-      <c r="A666" s="12"/>
+      <c r="A666" s="14"/>
     </row>
     <row r="667">
-      <c r="A667" s="12"/>
+      <c r="A667" s="14"/>
     </row>
     <row r="668">
-      <c r="A668" s="12"/>
+      <c r="A668" s="14"/>
     </row>
     <row r="669">
-      <c r="A669" s="12"/>
+      <c r="A669" s="14"/>
     </row>
     <row r="670">
-      <c r="A670" s="12"/>
+      <c r="A670" s="14"/>
     </row>
     <row r="671">
-      <c r="A671" s="12"/>
+      <c r="A671" s="14"/>
     </row>
     <row r="672">
-      <c r="A672" s="12"/>
+      <c r="A672" s="14"/>
     </row>
     <row r="673">
-      <c r="A673" s="12"/>
+      <c r="A673" s="14"/>
     </row>
     <row r="674">
-      <c r="A674" s="12"/>
+      <c r="A674" s="14"/>
     </row>
     <row r="675">
-      <c r="A675" s="12"/>
+      <c r="A675" s="14"/>
     </row>
     <row r="676">
-      <c r="A676" s="12"/>
+      <c r="A676" s="14"/>
     </row>
     <row r="677">
-      <c r="A677" s="12"/>
+      <c r="A677" s="14"/>
     </row>
     <row r="678">
-      <c r="A678" s="12"/>
+      <c r="A678" s="14"/>
     </row>
     <row r="679">
-      <c r="A679" s="12"/>
+      <c r="A679" s="14"/>
     </row>
     <row r="680">
-      <c r="A680" s="12"/>
+      <c r="A680" s="14"/>
     </row>
     <row r="681">
-      <c r="A681" s="12"/>
+      <c r="A681" s="14"/>
     </row>
     <row r="682">
-      <c r="A682" s="12"/>
+      <c r="A682" s="14"/>
     </row>
     <row r="683">
-      <c r="A683" s="12"/>
+      <c r="A683" s="14"/>
     </row>
     <row r="684">
-      <c r="A684" s="12"/>
+      <c r="A684" s="14"/>
     </row>
     <row r="685">
-      <c r="A685" s="12"/>
+      <c r="A685" s="14"/>
     </row>
     <row r="686">
-      <c r="A686" s="12"/>
+      <c r="A686" s="14"/>
     </row>
     <row r="687">
-      <c r="A687" s="12"/>
+      <c r="A687" s="14"/>
     </row>
     <row r="688">
-      <c r="A688" s="12"/>
+      <c r="A688" s="14"/>
     </row>
     <row r="689">
-      <c r="A689" s="12"/>
+      <c r="A689" s="14"/>
     </row>
     <row r="690">
-      <c r="A690" s="12"/>
+      <c r="A690" s="14"/>
     </row>
     <row r="691">
-      <c r="A691" s="12"/>
+      <c r="A691" s="14"/>
     </row>
     <row r="692">
-      <c r="A692" s="12"/>
+      <c r="A692" s="14"/>
     </row>
     <row r="693">
-      <c r="A693" s="12"/>
+      <c r="A693" s="14"/>
     </row>
     <row r="694">
-      <c r="A694" s="12"/>
+      <c r="A694" s="14"/>
     </row>
     <row r="695">
-      <c r="A695" s="12"/>
+      <c r="A695" s="14"/>
     </row>
     <row r="696">
-      <c r="A696" s="12"/>
+      <c r="A696" s="14"/>
     </row>
     <row r="697">
-      <c r="A697" s="12"/>
+      <c r="A697" s="14"/>
     </row>
     <row r="698">
-      <c r="A698" s="12"/>
+      <c r="A698" s="14"/>
     </row>
     <row r="699">
-      <c r="A699" s="12"/>
+      <c r="A699" s="14"/>
     </row>
     <row r="700">
-      <c r="A700" s="12"/>
+      <c r="A700" s="14"/>
     </row>
     <row r="701">
-      <c r="A701" s="12"/>
+      <c r="A701" s="14"/>
     </row>
     <row r="702">
-      <c r="A702" s="12"/>
+      <c r="A702" s="14"/>
     </row>
     <row r="703">
-      <c r="A703" s="12"/>
+      <c r="A703" s="14"/>
     </row>
     <row r="704">
-      <c r="A704" s="12"/>
+      <c r="A704" s="14"/>
     </row>
     <row r="705">
-      <c r="A705" s="12"/>
+      <c r="A705" s="14"/>
     </row>
     <row r="706">
-      <c r="A706" s="12"/>
+      <c r="A706" s="14"/>
     </row>
     <row r="707">
-      <c r="A707" s="12"/>
+      <c r="A707" s="14"/>
     </row>
     <row r="708">
-      <c r="A708" s="12"/>
+      <c r="A708" s="14"/>
     </row>
     <row r="709">
-      <c r="A709" s="12"/>
+      <c r="A709" s="14"/>
     </row>
     <row r="710">
-      <c r="A710" s="12"/>
+      <c r="A710" s="14"/>
     </row>
     <row r="711">
-      <c r="A711" s="12"/>
+      <c r="A711" s="14"/>
     </row>
     <row r="712">
-      <c r="A712" s="12"/>
+      <c r="A712" s="14"/>
     </row>
     <row r="713">
-      <c r="A713" s="12"/>
+      <c r="A713" s="14"/>
     </row>
     <row r="714">
-      <c r="A714" s="12"/>
+      <c r="A714" s="14"/>
     </row>
     <row r="715">
-      <c r="A715" s="12"/>
+      <c r="A715" s="14"/>
     </row>
     <row r="716">
-      <c r="A716" s="12"/>
+      <c r="A716" s="14"/>
     </row>
     <row r="717">
-      <c r="A717" s="12"/>
+      <c r="A717" s="14"/>
     </row>
     <row r="718">
-      <c r="A718" s="12"/>
+      <c r="A718" s="14"/>
     </row>
     <row r="719">
-      <c r="A719" s="12"/>
+      <c r="A719" s="14"/>
     </row>
     <row r="720">
-      <c r="A720" s="12"/>
+      <c r="A720" s="14"/>
     </row>
     <row r="721">
-      <c r="A721" s="12"/>
+      <c r="A721" s="14"/>
     </row>
     <row r="722">
-      <c r="A722" s="12"/>
+      <c r="A722" s="14"/>
     </row>
     <row r="723">
-      <c r="A723" s="12"/>
+      <c r="A723" s="14"/>
     </row>
     <row r="724">
-      <c r="A724" s="12"/>
+      <c r="A724" s="14"/>
     </row>
     <row r="725">
-      <c r="A725" s="12"/>
+      <c r="A725" s="14"/>
     </row>
     <row r="726">
-      <c r="A726" s="12"/>
+      <c r="A726" s="14"/>
     </row>
     <row r="727">
-      <c r="A727" s="12"/>
+      <c r="A727" s="14"/>
     </row>
     <row r="728">
-      <c r="A728" s="12"/>
+      <c r="A728" s="14"/>
     </row>
     <row r="729">
-      <c r="A729" s="12"/>
+      <c r="A729" s="14"/>
     </row>
     <row r="730">
-      <c r="A730" s="12"/>
+      <c r="A730" s="14"/>
     </row>
     <row r="731">
-      <c r="A731" s="12"/>
+      <c r="A731" s="14"/>
     </row>
     <row r="732">
-      <c r="A732" s="12"/>
+      <c r="A732" s="14"/>
     </row>
     <row r="733">
-      <c r="A733" s="12"/>
+      <c r="A733" s="14"/>
     </row>
     <row r="734">
-      <c r="A734" s="12"/>
+      <c r="A734" s="14"/>
     </row>
     <row r="735">
-      <c r="A735" s="12"/>
+      <c r="A735" s="14"/>
     </row>
     <row r="736">
-      <c r="A736" s="12"/>
+      <c r="A736" s="14"/>
     </row>
     <row r="737">
-      <c r="A737" s="12"/>
+      <c r="A737" s="14"/>
     </row>
     <row r="738">
-      <c r="A738" s="12"/>
+      <c r="A738" s="14"/>
     </row>
     <row r="739">
-      <c r="A739" s="12"/>
+      <c r="A739" s="14"/>
     </row>
     <row r="740">
-      <c r="A740" s="12"/>
+      <c r="A740" s="14"/>
     </row>
     <row r="741">
-      <c r="A741" s="12"/>
+      <c r="A741" s="14"/>
     </row>
     <row r="742">
-      <c r="A742" s="12"/>
+      <c r="A742" s="14"/>
     </row>
     <row r="743">
-      <c r="A743" s="12"/>
+      <c r="A743" s="14"/>
     </row>
     <row r="744">
-      <c r="A744" s="12"/>
+      <c r="A744" s="14"/>
     </row>
     <row r="745">
-      <c r="A745" s="12"/>
+      <c r="A745" s="14"/>
     </row>
     <row r="746">
-      <c r="A746" s="12"/>
+      <c r="A746" s="14"/>
     </row>
     <row r="747">
-      <c r="A747" s="12"/>
+      <c r="A747" s="14"/>
     </row>
     <row r="748">
-      <c r="A748" s="12"/>
+      <c r="A748" s="14"/>
     </row>
     <row r="749">
-      <c r="A749" s="12"/>
+      <c r="A749" s="14"/>
     </row>
     <row r="750">
-      <c r="A750" s="12"/>
+      <c r="A750" s="14"/>
     </row>
     <row r="751">
-      <c r="A751" s="12"/>
+      <c r="A751" s="14"/>
     </row>
     <row r="752">
-      <c r="A752" s="12"/>
+      <c r="A752" s="14"/>
     </row>
     <row r="753">
-      <c r="A753" s="12"/>
+      <c r="A753" s="14"/>
     </row>
     <row r="754">
-      <c r="A754" s="12"/>
+      <c r="A754" s="14"/>
     </row>
     <row r="755">
-      <c r="A755" s="12"/>
+      <c r="A755" s="14"/>
     </row>
     <row r="756">
-      <c r="A756" s="12"/>
+      <c r="A756" s="14"/>
     </row>
     <row r="757">
-      <c r="A757" s="12"/>
+      <c r="A757" s="14"/>
     </row>
     <row r="758">
-      <c r="A758" s="12"/>
+      <c r="A758" s="14"/>
     </row>
     <row r="759">
-      <c r="A759" s="12"/>
+      <c r="A759" s="14"/>
     </row>
     <row r="760">
-      <c r="A760" s="12"/>
+      <c r="A760" s="14"/>
     </row>
     <row r="761">
-      <c r="A761" s="12"/>
+      <c r="A761" s="14"/>
     </row>
     <row r="762">
-      <c r="A762" s="12"/>
+      <c r="A762" s="14"/>
     </row>
     <row r="763">
-      <c r="A763" s="12"/>
+      <c r="A763" s="14"/>
     </row>
     <row r="764">
-      <c r="A764" s="12"/>
+      <c r="A764" s="14"/>
     </row>
     <row r="765">
-      <c r="A765" s="12"/>
+      <c r="A765" s="14"/>
     </row>
     <row r="766">
-      <c r="A766" s="12"/>
+      <c r="A766" s="14"/>
     </row>
     <row r="767">
-      <c r="A767" s="12"/>
+      <c r="A767" s="14"/>
     </row>
     <row r="768">
-      <c r="A768" s="12"/>
+      <c r="A768" s="14"/>
     </row>
     <row r="769">
-      <c r="A769" s="12"/>
+      <c r="A769" s="14"/>
     </row>
     <row r="770">
-      <c r="A770" s="12"/>
+      <c r="A770" s="14"/>
     </row>
     <row r="771">
-      <c r="A771" s="12"/>
+      <c r="A771" s="14"/>
     </row>
     <row r="772">
-      <c r="A772" s="12"/>
+      <c r="A772" s="14"/>
     </row>
     <row r="773">
-      <c r="A773" s="12"/>
+      <c r="A773" s="14"/>
     </row>
     <row r="774">
-      <c r="A774" s="12"/>
+      <c r="A774" s="14"/>
     </row>
     <row r="775">
-      <c r="A775" s="12"/>
+      <c r="A775" s="14"/>
     </row>
     <row r="776">
-      <c r="A776" s="12"/>
+      <c r="A776" s="14"/>
     </row>
     <row r="777">
-      <c r="A777" s="12"/>
+      <c r="A777" s="14"/>
     </row>
     <row r="778">
-      <c r="A778" s="12"/>
+      <c r="A778" s="14"/>
     </row>
     <row r="779">
-      <c r="A779" s="12"/>
+      <c r="A779" s="14"/>
     </row>
     <row r="780">
-      <c r="A780" s="12"/>
+      <c r="A780" s="14"/>
     </row>
     <row r="781">
-      <c r="A781" s="12"/>
+      <c r="A781" s="14"/>
     </row>
     <row r="782">
-      <c r="A782" s="12"/>
+      <c r="A782" s="14"/>
     </row>
     <row r="783">
-      <c r="A783" s="12"/>
+      <c r="A783" s="14"/>
     </row>
     <row r="784">
-      <c r="A784" s="12"/>
+      <c r="A784" s="14"/>
     </row>
     <row r="785">
-      <c r="A785" s="12"/>
+      <c r="A785" s="14"/>
     </row>
     <row r="786">
-      <c r="A786" s="12"/>
+      <c r="A786" s="14"/>
     </row>
     <row r="787">
-      <c r="A787" s="12"/>
+      <c r="A787" s="14"/>
     </row>
     <row r="788">
-      <c r="A788" s="12"/>
+      <c r="A788" s="14"/>
     </row>
     <row r="789">
-      <c r="A789" s="12"/>
+      <c r="A789" s="14"/>
     </row>
     <row r="790">
-      <c r="A790" s="12"/>
+      <c r="A790" s="14"/>
     </row>
     <row r="791">
-      <c r="A791" s="12"/>
+      <c r="A791" s="14"/>
     </row>
     <row r="792">
-      <c r="A792" s="12"/>
+      <c r="A792" s="14"/>
     </row>
     <row r="793">
-      <c r="A793" s="12"/>
+      <c r="A793" s="14"/>
     </row>
     <row r="794">
-      <c r="A794" s="12"/>
+      <c r="A794" s="14"/>
     </row>
     <row r="795">
-      <c r="A795" s="12"/>
+      <c r="A795" s="14"/>
     </row>
     <row r="796">
-      <c r="A796" s="12"/>
+      <c r="A796" s="14"/>
     </row>
     <row r="797">
-      <c r="A797" s="12"/>
+      <c r="A797" s="14"/>
     </row>
     <row r="798">
-      <c r="A798" s="12"/>
+      <c r="A798" s="14"/>
     </row>
     <row r="799">
-      <c r="A799" s="12"/>
+      <c r="A799" s="14"/>
     </row>
     <row r="800">
-      <c r="A800" s="12"/>
+      <c r="A800" s="14"/>
     </row>
     <row r="801">
-      <c r="A801" s="12"/>
+      <c r="A801" s="14"/>
     </row>
     <row r="802">
-      <c r="A802" s="12"/>
+      <c r="A802" s="14"/>
     </row>
     <row r="803">
-      <c r="A803" s="12"/>
+      <c r="A803" s="14"/>
     </row>
     <row r="804">
-      <c r="A804" s="12"/>
+      <c r="A804" s="14"/>
     </row>
     <row r="805">
-      <c r="A805" s="12"/>
+      <c r="A805" s="14"/>
     </row>
     <row r="806">
-      <c r="A806" s="12"/>
+      <c r="A806" s="14"/>
     </row>
     <row r="807">
-      <c r="A807" s="12"/>
+      <c r="A807" s="14"/>
     </row>
     <row r="808">
-      <c r="A808" s="12"/>
+      <c r="A808" s="14"/>
     </row>
     <row r="809">
-      <c r="A809" s="12"/>
+      <c r="A809" s="14"/>
     </row>
     <row r="810">
-      <c r="A810" s="12"/>
+      <c r="A810" s="14"/>
     </row>
     <row r="811">
-      <c r="A811" s="12"/>
+      <c r="A811" s="14"/>
     </row>
     <row r="812">
-      <c r="A812" s="12"/>
+      <c r="A812" s="14"/>
     </row>
     <row r="813">
-      <c r="A813" s="12"/>
+      <c r="A813" s="14"/>
     </row>
     <row r="814">
-      <c r="A814" s="12"/>
+      <c r="A814" s="14"/>
     </row>
     <row r="815">
-      <c r="A815" s="12"/>
+      <c r="A815" s="14"/>
     </row>
     <row r="816">
-      <c r="A816" s="12"/>
+      <c r="A816" s="14"/>
     </row>
     <row r="817">
-      <c r="A817" s="12"/>
+      <c r="A817" s="14"/>
     </row>
     <row r="818">
-      <c r="A818" s="12"/>
+      <c r="A818" s="14"/>
     </row>
     <row r="819">
-      <c r="A819" s="12"/>
+      <c r="A819" s="14"/>
     </row>
     <row r="820">
-      <c r="A820" s="12"/>
+      <c r="A820" s="14"/>
     </row>
     <row r="821">
-      <c r="A821" s="12"/>
+      <c r="A821" s="14"/>
     </row>
     <row r="822">
-      <c r="A822" s="12"/>
+      <c r="A822" s="14"/>
     </row>
     <row r="823">
-      <c r="A823" s="12"/>
+      <c r="A823" s="14"/>
     </row>
     <row r="824">
-      <c r="A824" s="12"/>
+      <c r="A824" s="14"/>
     </row>
     <row r="825">
-      <c r="A825" s="12"/>
+      <c r="A825" s="14"/>
     </row>
     <row r="826">
-      <c r="A826" s="12"/>
+      <c r="A826" s="14"/>
     </row>
     <row r="827">
-      <c r="A827" s="12"/>
+      <c r="A827" s="14"/>
     </row>
     <row r="828">
-      <c r="A828" s="12"/>
+      <c r="A828" s="14"/>
     </row>
     <row r="829">
-      <c r="A829" s="12"/>
+      <c r="A829" s="14"/>
     </row>
     <row r="830">
-      <c r="A830" s="12"/>
+      <c r="A830" s="14"/>
     </row>
     <row r="831">
-      <c r="A831" s="12"/>
+      <c r="A831" s="14"/>
     </row>
     <row r="832">
-      <c r="A832" s="12"/>
+      <c r="A832" s="14"/>
     </row>
     <row r="833">
-      <c r="A833" s="12"/>
+      <c r="A833" s="14"/>
     </row>
     <row r="834">
-      <c r="A834" s="12"/>
+      <c r="A834" s="14"/>
     </row>
     <row r="835">
-      <c r="A835" s="12"/>
+      <c r="A835" s="14"/>
     </row>
     <row r="836">
-      <c r="A836" s="12"/>
+      <c r="A836" s="14"/>
     </row>
     <row r="837">
-      <c r="A837" s="12"/>
+      <c r="A837" s="14"/>
     </row>
     <row r="838">
-      <c r="A838" s="12"/>
+      <c r="A838" s="14"/>
     </row>
     <row r="839">
-      <c r="A839" s="12"/>
+      <c r="A839" s="14"/>
     </row>
     <row r="840">
-      <c r="A840" s="12"/>
+      <c r="A840" s="14"/>
     </row>
     <row r="841">
-      <c r="A841" s="12"/>
+      <c r="A841" s="14"/>
     </row>
     <row r="842">
-      <c r="A842" s="12"/>
+      <c r="A842" s="14"/>
     </row>
     <row r="843">
-      <c r="A843" s="12"/>
+      <c r="A843" s="14"/>
     </row>
     <row r="844">
-      <c r="A844" s="12"/>
+      <c r="A844" s="14"/>
     </row>
     <row r="845">
-      <c r="A845" s="12"/>
+      <c r="A845" s="14"/>
     </row>
     <row r="846">
-      <c r="A846" s="12"/>
+      <c r="A846" s="14"/>
     </row>
     <row r="847">
-      <c r="A847" s="12"/>
+      <c r="A847" s="14"/>
     </row>
     <row r="848">
-      <c r="A848" s="12"/>
+      <c r="A848" s="14"/>
     </row>
     <row r="849">
-      <c r="A849" s="12"/>
+      <c r="A849" s="14"/>
     </row>
     <row r="850">
-      <c r="A850" s="12"/>
+      <c r="A850" s="14"/>
     </row>
     <row r="851">
-      <c r="A851" s="12"/>
+      <c r="A851" s="14"/>
     </row>
     <row r="852">
-      <c r="A852" s="12"/>
+      <c r="A852" s="14"/>
     </row>
     <row r="853">
-      <c r="A853" s="12"/>
+      <c r="A853" s="14"/>
     </row>
     <row r="854">
-      <c r="A854" s="12"/>
+      <c r="A854" s="14"/>
     </row>
     <row r="855">
-      <c r="A855" s="12"/>
+      <c r="A855" s="14"/>
     </row>
     <row r="856">
-      <c r="A856" s="12"/>
+      <c r="A856" s="14"/>
     </row>
     <row r="857">
-      <c r="A857" s="12"/>
+      <c r="A857" s="14"/>
     </row>
     <row r="858">
-      <c r="A858" s="12"/>
+      <c r="A858" s="14"/>
     </row>
     <row r="859">
-      <c r="A859" s="12"/>
+      <c r="A859" s="14"/>
     </row>
     <row r="860">
-      <c r="A860" s="12"/>
+      <c r="A860" s="14"/>
     </row>
     <row r="861">
-      <c r="A861" s="12"/>
+      <c r="A861" s="14"/>
     </row>
     <row r="862">
-      <c r="A862" s="12"/>
+      <c r="A862" s="14"/>
     </row>
     <row r="863">
-      <c r="A863" s="12"/>
+      <c r="A863" s="14"/>
     </row>
     <row r="864">
-      <c r="A864" s="12"/>
+      <c r="A864" s="14"/>
     </row>
     <row r="865">
-      <c r="A865" s="12"/>
+      <c r="A865" s="14"/>
     </row>
     <row r="866">
-      <c r="A866" s="12"/>
+      <c r="A866" s="14"/>
     </row>
     <row r="867">
-      <c r="A867" s="12"/>
+      <c r="A867" s="14"/>
     </row>
     <row r="868">
-      <c r="A868" s="12"/>
+      <c r="A868" s="14"/>
     </row>
     <row r="869">
-      <c r="A869" s="12"/>
+      <c r="A869" s="14"/>
     </row>
     <row r="870">
-      <c r="A870" s="12"/>
+      <c r="A870" s="14"/>
     </row>
     <row r="871">
-      <c r="A871" s="12"/>
+      <c r="A871" s="14"/>
     </row>
     <row r="872">
-      <c r="A872" s="12"/>
+      <c r="A872" s="14"/>
     </row>
     <row r="873">
-      <c r="A873" s="12"/>
+      <c r="A873" s="14"/>
     </row>
     <row r="874">
-      <c r="A874" s="12"/>
+      <c r="A874" s="14"/>
     </row>
     <row r="875">
-      <c r="A875" s="12"/>
+      <c r="A875" s="14"/>
     </row>
     <row r="876">
-      <c r="A876" s="12"/>
+      <c r="A876" s="14"/>
     </row>
     <row r="877">
-      <c r="A877" s="12"/>
+      <c r="A877" s="14"/>
     </row>
     <row r="878">
-      <c r="A878" s="12"/>
+      <c r="A878" s="14"/>
     </row>
     <row r="879">
-      <c r="A879" s="12"/>
+      <c r="A879" s="14"/>
     </row>
     <row r="880">
-      <c r="A880" s="12"/>
+      <c r="A880" s="14"/>
     </row>
     <row r="881">
-      <c r="A881" s="12"/>
+      <c r="A881" s="14"/>
     </row>
     <row r="882">
-      <c r="A882" s="12"/>
+      <c r="A882" s="14"/>
     </row>
     <row r="883">
-      <c r="A883" s="12"/>
+      <c r="A883" s="14"/>
     </row>
     <row r="884">
-      <c r="A884" s="12"/>
+      <c r="A884" s="14"/>
     </row>
     <row r="885">
-      <c r="A885" s="12"/>
+      <c r="A885" s="14"/>
     </row>
     <row r="886">
-      <c r="A886" s="12"/>
+      <c r="A886" s="14"/>
     </row>
     <row r="887">
-      <c r="A887" s="12"/>
+      <c r="A887" s="14"/>
     </row>
     <row r="888">
-      <c r="A888" s="12"/>
+      <c r="A888" s="14"/>
     </row>
     <row r="889">
-      <c r="A889" s="12"/>
+      <c r="A889" s="14"/>
     </row>
     <row r="890">
-      <c r="A890" s="12"/>
+      <c r="A890" s="14"/>
     </row>
     <row r="891">
-      <c r="A891" s="12"/>
+      <c r="A891" s="14"/>
     </row>
     <row r="892">
-      <c r="A892" s="12"/>
+      <c r="A892" s="14"/>
     </row>
     <row r="893">
-      <c r="A893" s="12"/>
+      <c r="A893" s="14"/>
     </row>
     <row r="894">
-      <c r="A894" s="12"/>
+      <c r="A894" s="14"/>
     </row>
     <row r="895">
-      <c r="A895" s="12"/>
+      <c r="A895" s="14"/>
     </row>
     <row r="896">
-      <c r="A896" s="12"/>
+      <c r="A896" s="14"/>
     </row>
     <row r="897">
-      <c r="A897" s="12"/>
+      <c r="A897" s="14"/>
     </row>
     <row r="898">
-      <c r="A898" s="12"/>
+      <c r="A898" s="14"/>
     </row>
     <row r="899">
-      <c r="A899" s="12"/>
+      <c r="A899" s="14"/>
     </row>
     <row r="900">
-      <c r="A900" s="12"/>
+      <c r="A900" s="14"/>
     </row>
     <row r="901">
-      <c r="A901" s="12"/>
+      <c r="A901" s="14"/>
     </row>
     <row r="902">
-      <c r="A902" s="12"/>
+      <c r="A902" s="14"/>
     </row>
     <row r="903">
-      <c r="A903" s="12"/>
+      <c r="A903" s="14"/>
     </row>
     <row r="904">
-      <c r="A904" s="12"/>
+      <c r="A904" s="14"/>
     </row>
     <row r="905">
-      <c r="A905" s="12"/>
+      <c r="A905" s="14"/>
     </row>
     <row r="906">
-      <c r="A906" s="12"/>
+      <c r="A906" s="14"/>
     </row>
     <row r="907">
-      <c r="A907" s="12"/>
+      <c r="A907" s="14"/>
     </row>
     <row r="908">
-      <c r="A908" s="12"/>
+      <c r="A908" s="14"/>
     </row>
     <row r="909">
-      <c r="A909" s="12"/>
+      <c r="A909" s="14"/>
     </row>
     <row r="910">
-      <c r="A910" s="12"/>
+      <c r="A910" s="14"/>
     </row>
     <row r="911">
-      <c r="A911" s="12"/>
+      <c r="A911" s="14"/>
     </row>
     <row r="912">
-      <c r="A912" s="12"/>
+      <c r="A912" s="14"/>
     </row>
     <row r="913">
-      <c r="A913" s="12"/>
+      <c r="A913" s="14"/>
     </row>
     <row r="914">
-      <c r="A914" s="12"/>
+      <c r="A914" s="14"/>
     </row>
     <row r="915">
-      <c r="A915" s="12"/>
+      <c r="A915" s="14"/>
     </row>
     <row r="916">
-      <c r="A916" s="12"/>
+      <c r="A916" s="14"/>
     </row>
     <row r="917">
-      <c r="A917" s="12"/>
+      <c r="A917" s="14"/>
     </row>
     <row r="918">
-      <c r="A918" s="12"/>
+      <c r="A918" s="14"/>
     </row>
     <row r="919">
-      <c r="A919" s="12"/>
+      <c r="A919" s="14"/>
     </row>
     <row r="920">
-      <c r="A920" s="12"/>
+      <c r="A920" s="14"/>
     </row>
     <row r="921">
-      <c r="A921" s="12"/>
+      <c r="A921" s="14"/>
     </row>
     <row r="922">
-      <c r="A922" s="12"/>
+      <c r="A922" s="14"/>
     </row>
     <row r="923">
-      <c r="A923" s="12"/>
+      <c r="A923" s="14"/>
     </row>
     <row r="924">
-      <c r="A924" s="12"/>
+      <c r="A924" s="14"/>
     </row>
     <row r="925">
-      <c r="A925" s="12"/>
+      <c r="A925" s="14"/>
     </row>
     <row r="926">
-      <c r="A926" s="12"/>
+      <c r="A926" s="14"/>
     </row>
     <row r="927">
-      <c r="A927" s="12"/>
+      <c r="A927" s="14"/>
     </row>
     <row r="928">
-      <c r="A928" s="12"/>
+      <c r="A928" s="14"/>
     </row>
     <row r="929">
-      <c r="A929" s="12"/>
+      <c r="A929" s="14"/>
     </row>
     <row r="930">
-      <c r="A930" s="12"/>
+      <c r="A930" s="14"/>
     </row>
     <row r="931">
-      <c r="A931" s="12"/>
+      <c r="A931" s="14"/>
     </row>
     <row r="932">
-      <c r="A932" s="12"/>
+      <c r="A932" s="14"/>
     </row>
     <row r="933">
-      <c r="A933" s="12"/>
+      <c r="A933" s="14"/>
     </row>
     <row r="934">
-      <c r="A934" s="12"/>
+      <c r="A934" s="14"/>
     </row>
     <row r="935">
-      <c r="A935" s="12"/>
+      <c r="A935" s="14"/>
     </row>
     <row r="936">
-      <c r="A936" s="12"/>
+      <c r="A936" s="14"/>
     </row>
     <row r="937">
-      <c r="A937" s="12"/>
+      <c r="A937" s="14"/>
     </row>
     <row r="938">
-      <c r="A938" s="12"/>
+      <c r="A938" s="14"/>
     </row>
     <row r="939">
-      <c r="A939" s="12"/>
+      <c r="A939" s="14"/>
     </row>
     <row r="940">
-      <c r="A940" s="12"/>
+      <c r="A940" s="14"/>
     </row>
     <row r="941">
-      <c r="A941" s="12"/>
+      <c r="A941" s="14"/>
     </row>
     <row r="942">
-      <c r="A942" s="12"/>
+      <c r="A942" s="14"/>
     </row>
     <row r="943">
-      <c r="A943" s="12"/>
+      <c r="A943" s="14"/>
     </row>
     <row r="944">
-      <c r="A944" s="12"/>
+      <c r="A944" s="14"/>
     </row>
     <row r="945">
-      <c r="A945" s="12"/>
+      <c r="A945" s="14"/>
     </row>
     <row r="946">
-      <c r="A946" s="12"/>
+      <c r="A946" s="14"/>
     </row>
     <row r="947">
-      <c r="A947" s="12"/>
+      <c r="A947" s="14"/>
     </row>
     <row r="948">
-      <c r="A948" s="12"/>
+      <c r="A948" s="14"/>
     </row>
     <row r="949">
-      <c r="A949" s="12"/>
+      <c r="A949" s="14"/>
     </row>
     <row r="950">
-      <c r="A950" s="12"/>
+      <c r="A950" s="14"/>
     </row>
     <row r="951">
-      <c r="A951" s="12"/>
+      <c r="A951" s="14"/>
     </row>
     <row r="952">
-      <c r="A952" s="12"/>
+      <c r="A952" s="14"/>
     </row>
     <row r="953">
-      <c r="A953" s="12"/>
+      <c r="A953" s="14"/>
     </row>
     <row r="954">
-      <c r="A954" s="12"/>
+      <c r="A954" s="14"/>
     </row>
     <row r="955">
-      <c r="A955" s="12"/>
+      <c r="A955" s="14"/>
     </row>
     <row r="956">
-      <c r="A956" s="12"/>
+      <c r="A956" s="14"/>
     </row>
     <row r="957">
-      <c r="A957" s="12"/>
+      <c r="A957" s="14"/>
     </row>
     <row r="958">
-      <c r="A958" s="12"/>
+      <c r="A958" s="14"/>
     </row>
     <row r="959">
-      <c r="A959" s="12"/>
+      <c r="A959" s="14"/>
     </row>
     <row r="960">
-      <c r="A960" s="12"/>
+      <c r="A960" s="14"/>
     </row>
     <row r="961">
-      <c r="A961" s="12"/>
+      <c r="A961" s="14"/>
     </row>
     <row r="962">
-      <c r="A962" s="12"/>
+      <c r="A962" s="14"/>
     </row>
     <row r="963">
-      <c r="A963" s="12"/>
+      <c r="A963" s="14"/>
     </row>
     <row r="964">
-      <c r="A964" s="12"/>
+      <c r="A964" s="14"/>
     </row>
     <row r="965">
-      <c r="A965" s="12"/>
+      <c r="A965" s="14"/>
     </row>
     <row r="966">
-      <c r="A966" s="12"/>
+      <c r="A966" s="14"/>
     </row>
     <row r="967">
-      <c r="A967" s="12"/>
+      <c r="A967" s="14"/>
     </row>
     <row r="968">
-      <c r="A968" s="12"/>
+      <c r="A968" s="14"/>
     </row>
     <row r="969">
-      <c r="A969" s="12"/>
+      <c r="A969" s="14"/>
     </row>
     <row r="970">
-      <c r="A970" s="12"/>
+      <c r="A970" s="14"/>
     </row>
     <row r="971">
-      <c r="A971" s="12"/>
+      <c r="A971" s="14"/>
     </row>
     <row r="972">
-      <c r="A972" s="12"/>
+      <c r="A972" s="14"/>
     </row>
     <row r="973">
-      <c r="A973" s="12"/>
+      <c r="A973" s="14"/>
     </row>
     <row r="974">
-      <c r="A974" s="12"/>
+      <c r="A974" s="14"/>
     </row>
     <row r="975">
-      <c r="A975" s="12"/>
+      <c r="A975" s="14"/>
     </row>
     <row r="976">
-      <c r="A976" s="12"/>
+      <c r="A976" s="14"/>
     </row>
     <row r="977">
-      <c r="A977" s="12"/>
+      <c r="A977" s="14"/>
     </row>
     <row r="978">
-      <c r="A978" s="12"/>
+      <c r="A978" s="14"/>
     </row>
     <row r="979">
-      <c r="A979" s="12"/>
+      <c r="A979" s="14"/>
     </row>
     <row r="980">
-      <c r="A980" s="12"/>
+      <c r="A980" s="14"/>
     </row>
     <row r="981">
-      <c r="A981" s="12"/>
+      <c r="A981" s="14"/>
     </row>
     <row r="982">
-      <c r="A982" s="12"/>
+      <c r="A982" s="14"/>
     </row>
     <row r="983">
-      <c r="A983" s="12"/>
+      <c r="A983" s="14"/>
     </row>
     <row r="984">
-      <c r="A984" s="12"/>
+      <c r="A984" s="14"/>
     </row>
     <row r="985">
-      <c r="A985" s="12"/>
+      <c r="A985" s="14"/>
     </row>
     <row r="986">
-      <c r="A986" s="12"/>
+      <c r="A986" s="14"/>
     </row>
     <row r="987">
-      <c r="A987" s="12"/>
-    </row>
-    <row r="988">
-      <c r="A988" s="12"/>
-    </row>
-    <row r="989">
-      <c r="A989" s="12"/>
-    </row>
-    <row r="990">
-      <c r="A990" s="12"/>
-    </row>
-    <row r="991">
-      <c r="A991" s="12"/>
-    </row>
-    <row r="992">
-      <c r="A992" s="12"/>
-    </row>
-    <row r="993">
-      <c r="A993" s="12"/>
-    </row>
-    <row r="994">
-      <c r="A994" s="12"/>
-    </row>
-    <row r="995">
-      <c r="A995" s="12"/>
-    </row>
-    <row r="996">
-      <c r="A996" s="12"/>
-    </row>
-    <row r="997">
-      <c r="A997" s="12"/>
-    </row>
-    <row r="998">
-      <c r="A998" s="12"/>
-    </row>
-    <row r="999">
-      <c r="A999" s="12"/>
-    </row>
-    <row r="1000">
-      <c r="A1000" s="12"/>
+      <c r="A987" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A1:AY1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" location="heading=h.s7t9mh5d6b9p" ref="A3"/>
